--- a/Assets/模组参数生成器.xlsx
+++ b/Assets/模组参数生成器.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Admin\Documents\GitHub\Civ6_Modding_Textbook\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEEF77B-5F9D-4564-B9C1-8B38C50CA71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D47D3E-EB46-4650-ACB8-11DA05397AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="309">
   <si>
     <t>领袖名称变量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -911,114 +911,234 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>要求移开边境单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谴责人类玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到人类玩家谴责</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Born in 2010, Jasper kitty grew to power at a young age…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_CHAPTER_HISTORY_PARA_10</t>
+  </si>
+  <si>
+    <t>_CHAPTER_HISTORY_PARA_11</t>
+  </si>
+  <si>
+    <t>_CHAPTER_HISTORY_PARA_12</t>
+  </si>
+  <si>
+    <t>_CHAPTER_HISTORY_PARA_13</t>
+  </si>
+  <si>
+    <t>_CHAPTER_HISTORY_PARA_14</t>
+  </si>
+  <si>
+    <t>_CHAPTER_HISTORY_PARA_15</t>
+  </si>
+  <si>
+    <t>_CHAPTER_HISTORY_PARA_16</t>
+  </si>
+  <si>
+    <t>_CHAPTER_HISTORY_PARA_17</t>
+  </si>
+  <si>
+    <t>_CHAPTER_HISTORY_PARA_18</t>
+  </si>
+  <si>
+    <t>_CHAPTER_HISTORY_PARA_19</t>
+  </si>
+  <si>
+    <t>_CHAPTER_HISTORY_PARA_20</t>
+  </si>
+  <si>
+    <t>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The felines have a rich history, but are too lazy to write about it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mittens</t>
+  </si>
+  <si>
+    <t>Snookums</t>
+  </si>
+  <si>
+    <t>Patches</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Miss Kitty</t>
+  </si>
+  <si>
+    <t>Callie</t>
+  </si>
+  <si>
+    <t>Tabby</t>
+  </si>
+  <si>
+    <t>Whiskers</t>
+  </si>
+  <si>
+    <t>Sally Soft Paws</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mrow! I am the mighty Jasper Kitty. Pet me.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I haz a box. Wanna see?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Let me rub my face on all of your stuff so that it will be mine.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jasper kitty is a charismatic and typically friendly feline. He prefers diplomatic trades that involve food.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jasper kitty likes to hide in his fort and attack when others least expect it. He is particularly skilled at tripping people.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可自行填写（此例子是特色单位）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可自行填写（此例是特色建筑）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_2</t>
+  </si>
+  <si>
+    <t>LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_3</t>
+  </si>
+  <si>
+    <t>LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_4</t>
+  </si>
+  <si>
+    <t>LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_5</t>
+  </si>
+  <si>
+    <t>LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_6</t>
+  </si>
+  <si>
+    <t>LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_7</t>
+  </si>
+  <si>
+    <t>LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_8</t>
+  </si>
+  <si>
+    <t>LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_9</t>
+  </si>
+  <si>
+    <t>LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_10</t>
+  </si>
+  <si>
+    <t>LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_2</t>
+  </si>
+  <si>
+    <t>LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_3</t>
+  </si>
+  <si>
+    <t>LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_4</t>
+  </si>
+  <si>
+    <t>LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_5</t>
+  </si>
+  <si>
+    <t>LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_6</t>
+  </si>
+  <si>
+    <t>LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_7</t>
+  </si>
+  <si>
+    <t>LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_8</t>
+  </si>
+  <si>
+    <t>LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_9</t>
+  </si>
+  <si>
+    <t>LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_10</t>
+  </si>
+  <si>
     <t>请求参观附近城市
-mm01_080
 可以使用“我们附近有一座城市。想来拜访吗？”（We have a city nearby. Would you like to visit?）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>要求移开边境单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谴责人类玩家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受到人类玩家谴责</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Born in 2010, Jasper kitty grew to power at a young age…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_CHAPTER_HISTORY_PARA_10</t>
-  </si>
-  <si>
-    <t>_CHAPTER_HISTORY_PARA_11</t>
-  </si>
-  <si>
-    <t>_CHAPTER_HISTORY_PARA_12</t>
-  </si>
-  <si>
-    <t>_CHAPTER_HISTORY_PARA_13</t>
-  </si>
-  <si>
-    <t>_CHAPTER_HISTORY_PARA_14</t>
-  </si>
-  <si>
-    <t>_CHAPTER_HISTORY_PARA_15</t>
-  </si>
-  <si>
-    <t>_CHAPTER_HISTORY_PARA_16</t>
-  </si>
-  <si>
-    <t>_CHAPTER_HISTORY_PARA_17</t>
-  </si>
-  <si>
-    <t>_CHAPTER_HISTORY_PARA_18</t>
-  </si>
-  <si>
-    <t>_CHAPTER_HISTORY_PARA_19</t>
-  </si>
-  <si>
-    <t>_CHAPTER_HISTORY_PARA_20</t>
-  </si>
-  <si>
-    <t>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The felines have a rich history, but are too lazy to write about it.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mittens</t>
-  </si>
-  <si>
-    <t>Snookums</t>
-  </si>
-  <si>
-    <t>Patches</t>
-  </si>
-  <si>
-    <t>Tom</t>
-  </si>
-  <si>
-    <t>Miss Kitty</t>
-  </si>
-  <si>
-    <t>Callie</t>
-  </si>
-  <si>
-    <t>Tabby</t>
-  </si>
-  <si>
-    <t>Whiskers</t>
-  </si>
-  <si>
-    <t>Sally Soft Paws</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mrow! I am the mighty Jasper Kitty. Pet me.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I haz a box. Wanna see?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Let me rub my face on all of your stuff so that it will be mine.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jasper kitty is a charismatic and typically friendly feline. He prefers diplomatic trades that involve food.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jasper kitty likes to hide in his fort and attack when others least expect it. He is particularly skilled at tripping people.</t>
+    <t>I'm not going to write the historical context about the litter box…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm not going to write the historical context about the kittens...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫砂盆的历史信息我就先摆掉了……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈基米的历史信息我就先摆掉了……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫猫们有源远流长的历史，但它们懒得写。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOC_CIVINFO_</t>
+  </si>
+  <si>
+    <t>_LOCATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_SIZE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_POPULATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_CAPITAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1089,7 +1209,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1148,11 +1268,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB9D7EA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashed">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1205,13 +1343,25 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1799,7 +1949,7 @@
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D6" sqref="D6:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1908,7 +2058,7 @@
         <v>54</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -1939,7 +2089,7 @@
         <v>55</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -1970,7 +2120,7 @@
         <v>56</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -2202,7 +2352,7 @@
         <v>&lt;Row Tag="LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY_CHAPTER_HISTORY_PARA_9" Language="zh_Hans_CN" Text=""/&gt;</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="33">
+    <row r="15" spans="1:12" ht="16.5">
       <c r="A15" s="9" t="s">
         <v>14</v>
       </c>
@@ -2246,7 +2396,7 @@
         <v>217</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -2477,7 +2627,7 @@
         <v>LOC_DIPLO_DENOUNCE_FROM_HUMAN_LEADER_JASPER_KITTY_ANY</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -2506,7 +2656,7 @@
         <v>LOC_DIPLO_DENOUNCE_FROM_AI_LEADER_JASPER_KITTY_ANY</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -2535,7 +2685,7 @@
         <v>LOC_DIPLO_WARNING_TOO_MANY_TROOPS_NEAR_ME_LEADER_JASPER_KITTY_ANY</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -2564,10 +2714,10 @@
         <v>LOC_DIPLO_FIRST_MEET_VISIT_RECIPIENT_LEADER_JASPER_KITTY_ANY</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>242</v>
+        <v>295</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -2598,7 +2748,7 @@
         <v>241</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -3150,10 +3300,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0DE7D89-23A0-4FCD-A280-57A431FC8045}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="C12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3161,7 +3311,7 @@
     <col min="1" max="1" width="40.625" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="71.25" customWidth="1"/>
-    <col min="4" max="4" width="36.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="44" customWidth="1"/>
     <col min="6" max="6" width="56.375" customWidth="1"/>
     <col min="7" max="7" width="15.625" hidden="1" customWidth="1"/>
@@ -3222,7 +3372,7 @@
     </row>
     <row r="3" spans="1:12" ht="36.75" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
@@ -3231,13 +3381,15 @@
         <f t="shared" ref="C3:C11" si="0">_xlfn.CONCAT(A3,$D$2,B3)</f>
         <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_1</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>56</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="F3" s="3"/>
+        <v>258</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>300</v>
+      </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -3248,12 +3400,12 @@
       </c>
       <c r="L3" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_1" Language="zh_Hans_CN" Text=""/&gt;</v>
+        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_1" Language="zh_Hans_CN" Text="猫猫们有源远流长的历史，但它们懒得写。"/&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="36.75" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>6</v>
@@ -3262,7 +3414,7 @@
         <f t="shared" si="0"/>
         <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_2</v>
       </c>
-      <c r="D4" s="20"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -3280,7 +3432,7 @@
     </row>
     <row r="5" spans="1:12" ht="36.75" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>7</v>
@@ -3289,7 +3441,7 @@
         <f t="shared" si="0"/>
         <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_3</v>
       </c>
-      <c r="D5" s="20"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -3307,7 +3459,7 @@
     </row>
     <row r="6" spans="1:12" ht="36.75" customHeight="1">
       <c r="A6" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>8</v>
@@ -3316,7 +3468,7 @@
         <f t="shared" si="0"/>
         <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_4</v>
       </c>
-      <c r="D6" s="20"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -3334,7 +3486,7 @@
     </row>
     <row r="7" spans="1:12" ht="36.75" customHeight="1">
       <c r="A7" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>9</v>
@@ -3343,7 +3495,7 @@
         <f t="shared" si="0"/>
         <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_5</v>
       </c>
-      <c r="D7" s="20"/>
+      <c r="D7" s="19"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -3361,7 +3513,7 @@
     </row>
     <row r="8" spans="1:12" ht="36.75" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>10</v>
@@ -3370,7 +3522,7 @@
         <f t="shared" si="0"/>
         <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_6</v>
       </c>
-      <c r="D8" s="20"/>
+      <c r="D8" s="19"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -3388,7 +3540,7 @@
     </row>
     <row r="9" spans="1:12" ht="36.75" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>11</v>
@@ -3397,7 +3549,7 @@
         <f t="shared" si="0"/>
         <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_7</v>
       </c>
-      <c r="D9" s="20"/>
+      <c r="D9" s="19"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -3415,7 +3567,7 @@
     </row>
     <row r="10" spans="1:12" ht="36.75" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>12</v>
@@ -3424,7 +3576,7 @@
         <f t="shared" si="0"/>
         <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_8</v>
       </c>
-      <c r="D10" s="20"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -3442,7 +3594,7 @@
     </row>
     <row r="11" spans="1:12" ht="36.75" customHeight="1">
       <c r="A11" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>13</v>
@@ -3451,7 +3603,7 @@
         <f t="shared" si="0"/>
         <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_9</v>
       </c>
-      <c r="D11" s="20"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -3469,16 +3621,16 @@
     </row>
     <row r="12" spans="1:12" ht="36.75" customHeight="1">
       <c r="A12" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C12" s="10" t="str">
         <f t="shared" ref="C12:C20" si="2">_xlfn.CONCAT(A12,$D$2,B12)</f>
         <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_10</v>
       </c>
-      <c r="D12" s="20"/>
+      <c r="D12" s="19"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -3496,16 +3648,16 @@
     </row>
     <row r="13" spans="1:12" ht="36.75" customHeight="1">
       <c r="A13" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C13" s="9" t="str">
         <f t="shared" si="2"/>
         <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_11</v>
       </c>
-      <c r="D13" s="20"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -3523,16 +3675,16 @@
     </row>
     <row r="14" spans="1:12" ht="36.75" customHeight="1">
       <c r="A14" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C14" s="10" t="str">
         <f t="shared" si="2"/>
         <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_12</v>
       </c>
-      <c r="D14" s="20"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -3550,16 +3702,16 @@
     </row>
     <row r="15" spans="1:12" ht="36.75" customHeight="1">
       <c r="A15" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C15" s="9" t="str">
         <f t="shared" si="2"/>
         <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_13</v>
       </c>
-      <c r="D15" s="20"/>
+      <c r="D15" s="19"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -3577,16 +3729,16 @@
     </row>
     <row r="16" spans="1:12" ht="36.75" customHeight="1">
       <c r="A16" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C16" s="10" t="str">
         <f t="shared" si="2"/>
         <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_14</v>
       </c>
-      <c r="D16" s="20"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -3604,16 +3756,16 @@
     </row>
     <row r="17" spans="1:12" ht="36.75" customHeight="1">
       <c r="A17" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C17" s="9" t="str">
         <f t="shared" si="2"/>
         <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_15</v>
       </c>
-      <c r="D17" s="20"/>
+      <c r="D17" s="19"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -3631,16 +3783,16 @@
     </row>
     <row r="18" spans="1:12" ht="36.75" customHeight="1">
       <c r="A18" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C18" s="10" t="str">
         <f t="shared" si="2"/>
         <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_16</v>
       </c>
-      <c r="D18" s="20"/>
+      <c r="D18" s="19"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -3658,16 +3810,16 @@
     </row>
     <row r="19" spans="1:12" ht="36.75" customHeight="1">
       <c r="A19" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C19" s="9" t="str">
         <f t="shared" si="2"/>
         <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_17</v>
       </c>
-      <c r="D19" s="20"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -3685,16 +3837,16 @@
     </row>
     <row r="20" spans="1:12" ht="36.75" customHeight="1">
       <c r="A20" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C20" s="10" t="str">
         <f t="shared" si="2"/>
         <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_18</v>
       </c>
-      <c r="D20" s="20"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -3712,16 +3864,16 @@
     </row>
     <row r="21" spans="1:12" ht="36.75" customHeight="1">
       <c r="A21" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f t="shared" ref="C21:C22" si="5">_xlfn.CONCAT(A21,$D$2,B21)</f>
+        <f t="shared" ref="C21:C24" si="5">_xlfn.CONCAT(A21,$D$2,B21)</f>
         <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_19</v>
       </c>
-      <c r="D21" s="20"/>
+      <c r="D21" s="19"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -3729,26 +3881,26 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="9" t="str">
-        <f t="shared" ref="K21:K22" si="6">CLEAN(_xlfn.CONCAT($G$2,$C21,$H$2,E$2,$I$2,E21,$J$2))</f>
+        <f t="shared" ref="K21:K46" si="6">CLEAN(_xlfn.CONCAT($G$2,$C21,$H$2,E$2,$I$2,E21,$J$2))</f>
         <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_19" Language="en_US" Text=""/&gt;</v>
       </c>
       <c r="L21" s="9" t="str">
-        <f t="shared" ref="L21:L22" si="7">CLEAN(_xlfn.CONCAT($G$2,$C21,$H$2,F$2,$I$2,F21,$J$2))</f>
+        <f t="shared" ref="L21:L46" si="7">CLEAN(_xlfn.CONCAT($G$2,$C21,$H$2,F$2,$I$2,F21,$J$2))</f>
         <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_19" Language="zh_Hans_CN" Text=""/&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="36.75" customHeight="1">
       <c r="A22" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C22" s="10" t="str">
         <f t="shared" si="5"/>
         <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_20</v>
       </c>
-      <c r="D22" s="20"/>
+      <c r="D22" s="19"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -3764,11 +3916,581 @@
         <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_20" Language="zh_Hans_CN" Text=""/&gt;</v>
       </c>
     </row>
+    <row r="23" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A23" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C23" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>LOC_CIVINFO_FELINE_LOCATION</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;Row Tag="LOC_CIVINFO_FELINE_LOCATION" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L23" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Row Tag="LOC_CIVINFO_FELINE_LOCATION" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A24" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C24" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>LOC_CIVINFO_FELINE_SIZE</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;Row Tag="LOC_CIVINFO_FELINE_SIZE" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L24" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Row Tag="LOC_CIVINFO_FELINE_SIZE" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A25" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C25" s="9" t="str">
+        <f t="shared" ref="C25:C26" si="8">_xlfn.CONCAT(A25,$D$2,B25)</f>
+        <v>LOC_CIVINFO_FELINE_POPULATION</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="9" t="str">
+        <f t="shared" ref="K25:K26" si="9">CLEAN(_xlfn.CONCAT($G$2,$C25,$H$2,E$2,$I$2,E25,$J$2))</f>
+        <v>&lt;Row Tag="LOC_CIVINFO_FELINE_POPULATION" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L25" s="9" t="str">
+        <f t="shared" ref="L25:L26" si="10">CLEAN(_xlfn.CONCAT($G$2,$C25,$H$2,F$2,$I$2,F25,$J$2))</f>
+        <v>&lt;Row Tag="LOC_CIVINFO_FELINE_POPULATION" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A26" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C26" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>LOC_CIVINFO_FELINE_CAPITAL</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v>&lt;Row Tag="LOC_CIVINFO_FELINE_CAPITAL" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L26" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v>&lt;Row Tag="LOC_CIVINFO_FELINE_CAPITAL" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A27" s="10"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_1" Language="en_US" Text="I'm not going to write the historical context about the kittens..."/&gt;</v>
+      </c>
+      <c r="L27" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_1" Language="zh_Hans_CN" Text="哈基米的历史信息我就先摆掉了……"/&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A28" s="10"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_2" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L28" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_2" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A29" s="10"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="D29" s="23"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_3" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L29" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_3" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A30" s="10"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="D30" s="23"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_4" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L30" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_4" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A31" s="10"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="D31" s="23"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_5" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L31" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_5" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A32" s="10"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="D32" s="23"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_6" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L32" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_6" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A33" s="10"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="D33" s="23"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_7" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L33" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_7" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A34" s="10"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="D34" s="23"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_8" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L34" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_8" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A35" s="10"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D35" s="23"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_9" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L35" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_9" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A36" s="10"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="D36" s="21"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_10" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L36" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_10" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A37" s="10"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_1" Language="en_US" Text="I'm not going to write the historical context about the litter box…"/&gt;</v>
+      </c>
+      <c r="L37" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_1" Language="zh_Hans_CN" Text="猫砂盆的历史信息我就先摆掉了……"/&gt;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A38" s="10"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="D38" s="23"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_2" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L38" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_2" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A39" s="10"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="D39" s="23"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_3" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L39" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_3" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A40" s="10"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="D40" s="23"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_4" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L40" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_4" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A41" s="10"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="D41" s="23"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_5" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L41" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_5" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A42" s="10"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="D42" s="23"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_6" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L42" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_6" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A43" s="10"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="D43" s="23"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_7" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L43" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_7" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A44" s="10"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="D44" s="23"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_8" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L44" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_8" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A45" s="10"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="D45" s="23"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_9" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L45" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_9" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A46" s="10"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="D46" s="24"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_10" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L46" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_10" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="D3:D22"/>
+    <mergeCell ref="D27:D36"/>
+    <mergeCell ref="D37:D46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3812,11 +4534,11 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="79.5" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -4833,7 +5555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B0F33A-5DF6-48ED-B581-A4904C1E96E7}">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
@@ -4868,11 +5590,11 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="79.5" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -4929,7 +5651,7 @@
         <v>LOC_CITIZEN_FELINE_MALE_1</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="6" t="s">
@@ -4974,7 +5696,7 @@
         <v>LOC_CITIZEN_FELINE_MALE_2</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="3" t="s">
@@ -5015,7 +5737,7 @@
         <v>LOC_CITIZEN_FELINE_MALE_3</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="4"/>
@@ -5052,7 +5774,7 @@
         <v>LOC_CITIZEN_FELINE_MALE_4</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="3"/>
@@ -5649,7 +6371,7 @@
         <v>LOC_CITIZEN_FELINE_FEMALE_1</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="4"/>
@@ -5686,7 +6408,7 @@
         <v>LOC_CITIZEN_FELINE_FEMALE_2</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="4"/>
@@ -5723,7 +6445,7 @@
         <v>LOC_CITIZEN_FELINE_FEMALE_3</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="3"/>
@@ -5760,7 +6482,7 @@
         <v>LOC_CITIZEN_FELINE_FEMALE_4</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="4"/>
@@ -5797,7 +6519,7 @@
         <v>LOC_CITIZEN_FELINE_FEMALE_5</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="3"/>

--- a/Assets/模组参数生成器.xlsx
+++ b/Assets/模组参数生成器.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Admin\Documents\GitHub\Civ6_Modding_Textbook\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D47D3E-EB46-4650-ACB8-11DA05397AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA9CDE3-8B35-40E4-824D-C95212F18AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本参数" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="317">
   <si>
     <t>领袖名称变量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1008,14 +1008,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Jasper kitty is a charismatic and typically friendly feline. He prefers diplomatic trades that involve food.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jasper kitty likes to hide in his fort and attack when others least expect it. He is particularly skilled at tripping people.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>可自行填写（此例子是特色单位）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1139,6 +1131,46 @@
   </si>
   <si>
     <t>人口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪贾斯伯是一只对新手友好的猫，他将教会人们怎么编写一个简单而强大的领袖。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jasper kitty is a beginner-friendly feline. He teachs people how to write a simple but powerful leader.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪贾斯伯出生于2010年，他年纪轻轻便大权在握……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喵呜！我就是强而有力的猫咪贾斯伯。快宠我。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我有个猫窝。你要来看吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要在你的东西上都蹭蹭脸，这样它们就是我的啦。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪贾斯伯的特性易于编写，且在游戏早期就十分强大。使用简单的修正和单位能力，他们就能获得强大的产出和战斗加成，使他们适合追求所有类型的胜利路线。务必在每一座城市都建造“猫砂盆”建筑，它提供的额外的 [ICON_Culture] 文化值对城市发展至关重要。您成功自己编写完成这个领袖以后，模组设计的广阔天地就任您发挥了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jasper kitty has traits that are powerful since the early game and easy to write. By using simple modifiers and unit abilities, they will acquire strong yield and combat bonuses and make themselves a contender for any victory. Be sure to build a Litter Box which provides bonus [ICON_Culture] essential for city development in every city you have. It will be up to you to design you own mod by yourself after you make this mod successfully!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪贾斯伯，统治世界吧！您已磨利了尖牙和爪子，准备好以闪电般的速度探索。歇脚时，在猫砂盆里宣告自己的主权，让仆人为你清洁。带领猫咪军团闪击敌人吧，教会他们：文明猫猫，也会哈气。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule the world, Jasper Kitty! You have your teeth and claws sharpened, and are prepared to explore with lightning speed. Claim your sovereignty in a Litter Box when you are taking rest, and let your servent clean for you. Lead your kitten legion to strike your enemies, and let them know that a civilized cat can go feral.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1290,7 +1322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1349,19 +1381,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1949,7 +1978,7 @@
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D14"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2016,7 +2045,7 @@
       </c>
       <c r="L2" s="14"/>
     </row>
-    <row r="3" spans="1:12" ht="36.75" customHeight="1">
+    <row r="3" spans="1:12" ht="118.5" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -2028,19 +2057,23 @@
       <c r="D3" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>315</v>
+      </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="8" t="str">
         <f>CLEAN(_xlfn.CONCAT($G$2,$C3,$H$2,E$2,$I$2,E3,$J$2))</f>
-        <v>&lt;Row Tag="LOC_LOADING_INFO_LEADER_JASPER_KITTY" Language="en_US" Text=""/&gt;</v>
+        <v>&lt;Row Tag="LOC_LOADING_INFO_LEADER_JASPER_KITTY" Language="en_US" Text="Rule the world, Jasper Kitty! You have your teeth and claws sharpened, and are prepared to explore with lightning speed. Claim your sovereignty in a Litter Box when you are taking rest, and let your servent clean for you. Lead your kitten legion to strike your enemies, and let them know that a civilized cat can go feral."/&gt;</v>
       </c>
       <c r="L3" s="8" t="str">
         <f>CLEAN(_xlfn.CONCAT($G$2,$C3,$H$2,F$2,$I$2,F3,$J$2))</f>
-        <v>&lt;Row Tag="LOC_LOADING_INFO_LEADER_JASPER_KITTY" Language="zh_Hans_CN" Text=""/&gt;</v>
+        <v>&lt;Row Tag="LOC_LOADING_INFO_LEADER_JASPER_KITTY" Language="zh_Hans_CN" Text="猫咪贾斯伯，统治世界吧！您已磨利了尖牙和爪子，准备好以闪电般的速度探索。歇脚时，在猫砂盆里宣告自己的主权，让仆人为你清洁。带领猫咪军团闪击敌人吧，教会他们：文明猫猫，也会哈气。"/&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="36.75" customHeight="1">
@@ -2058,23 +2091,25 @@
         <v>54</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="F4" s="3"/>
+        <v>308</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>307</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="10" t="str">
         <f t="shared" ref="K4" si="1">CLEAN(_xlfn.CONCAT($G$2,$C4,$H$2,E$2,$I$2,E4,$J$2))</f>
-        <v>&lt;Row Tag="LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY_CHAPTER_CAPSULE_BODY" Language="en_US" Text="Jasper kitty is a charismatic and typically friendly feline. He prefers diplomatic trades that involve food."/&gt;</v>
+        <v>&lt;Row Tag="LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY_CHAPTER_CAPSULE_BODY" Language="en_US" Text="Jasper kitty is a beginner-friendly feline. He teachs people how to write a simple but powerful leader."/&gt;</v>
       </c>
       <c r="L4" s="10" t="str">
         <f t="shared" ref="L4" si="2">CLEAN(_xlfn.CONCAT($G$2,$C4,$H$2,F$2,$I$2,F4,$J$2))</f>
-        <v>&lt;Row Tag="LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY_CHAPTER_CAPSULE_BODY" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="36.75" customHeight="1">
+        <v>&lt;Row Tag="LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY_CHAPTER_CAPSULE_BODY" Language="zh_Hans_CN" Text="猫咪贾斯伯是一只对新手友好的猫，他将教会人们怎么编写一个简单而强大的领袖。"/&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="168.75" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
@@ -2089,20 +2124,22 @@
         <v>55</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="F5" s="4"/>
+        <v>314</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>313</v>
+      </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="9" t="str">
         <f t="shared" ref="K5:L46" si="3">CLEAN(_xlfn.CONCAT($G$2,$C5,$H$2,E$2,$I$2,E5,$J$2))</f>
-        <v>&lt;Row Tag="LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY_CHAPTER_DETAILED_BODY" Language="en_US" Text="Jasper kitty likes to hide in his fort and attack when others least expect it. He is particularly skilled at tripping people."/&gt;</v>
+        <v>&lt;Row Tag="LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY_CHAPTER_DETAILED_BODY" Language="en_US" Text="Jasper kitty has traits that are powerful since the early game and easy to write. By using simple modifiers and unit abilities, they will acquire strong yield and combat bonuses and make themselves a contender for any victory. Be sure to build a Litter Box which provides bonus [ICON_Culture] essential for city development in every city you have. It will be up to you to design you own mod by yourself after you make this mod successfully!"/&gt;</v>
       </c>
       <c r="L5" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;Row Tag="LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY_CHAPTER_DETAILED_BODY" Language="zh_Hans_CN" Text=""/&gt;</v>
+        <v>&lt;Row Tag="LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY_CHAPTER_DETAILED_BODY" Language="zh_Hans_CN" Text="猫咪贾斯伯的特性易于编写，且在游戏早期就十分强大。使用简单的修正和单位能力，他们就能获得强大的产出和战斗加成，使他们适合追求所有类型的胜利路线。务必在每一座城市都建造“猫砂盆”建筑，它提供的额外的 [ICON_Culture] 文化值对城市发展至关重要。您成功自己编写完成这个领袖以后，模组设计的广阔天地就任您发挥了！"/&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="36.75" customHeight="1">
@@ -2122,7 +2159,9 @@
       <c r="E6" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>309</v>
+      </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -2133,7 +2172,7 @@
       </c>
       <c r="L6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;Row Tag="LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY_CHAPTER_HISTORY_PARA_1" Language="zh_Hans_CN" Text=""/&gt;</v>
+        <v>&lt;Row Tag="LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY_CHAPTER_HISTORY_PARA_1" Language="zh_Hans_CN" Text="猫咪贾斯伯出生于2010年，他年纪轻轻便大权在握……"/&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="36.75" customHeight="1">
@@ -2398,7 +2437,9 @@
       <c r="E16" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="F16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>310</v>
+      </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -2409,7 +2450,7 @@
       </c>
       <c r="L16" s="10" t="str">
         <f>CLEAN(_xlfn.CONCAT($G$2,$C16,$H$2,F$2,$I$2,F16,$J$2))</f>
-        <v>&lt;Row Tag="LOC_DIPLO_FIRST_MEET_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text=""/&gt;</v>
+        <v>&lt;Row Tag="LOC_DIPLO_FIRST_MEET_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text="喵呜！我就是强而有力的猫咪贾斯伯。快宠我。"/&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="33">
@@ -2714,12 +2755,14 @@
         <v>LOC_DIPLO_FIRST_MEET_VISIT_RECIPIENT_LEADER_JASPER_KITTY_ANY</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="F27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>311</v>
+      </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -2730,7 +2773,7 @@
       </c>
       <c r="L27" s="10" t="str">
         <f>CLEAN(_xlfn.CONCAT($G$2,$C27,$H$2,F$2,$I$2,F27,$J$2))</f>
-        <v>&lt;Row Tag="LOC_DIPLO_FIRST_MEET_VISIT_RECIPIENT_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text=""/&gt;</v>
+        <v>&lt;Row Tag="LOC_DIPLO_FIRST_MEET_VISIT_RECIPIENT_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text="我有个猫窝。你要来看吗？"/&gt;</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="46.5" customHeight="1">
@@ -2750,7 +2793,9 @@
       <c r="E28" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="F28" s="4"/>
+      <c r="F28" s="4" t="s">
+        <v>312</v>
+      </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -2761,7 +2806,7 @@
       </c>
       <c r="L28" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;Row Tag="LOC_DIPLO_FIRST_MEET_NEAR_INITIATOR_POSITIVE_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text=""/&gt;</v>
+        <v>&lt;Row Tag="LOC_DIPLO_FIRST_MEET_NEAR_INITIATOR_POSITIVE_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text="我要在你的东西上都蹭蹭脸，这样它们就是我的啦。"/&gt;</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="33">
@@ -3302,7 +3347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0DE7D89-23A0-4FCD-A280-57A431FC8045}">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView topLeftCell="C12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="C29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -3388,7 +3433,7 @@
         <v>258</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -3918,17 +3963,17 @@
     </row>
     <row r="23" spans="1:12" ht="36.75" customHeight="1">
       <c r="A23" s="10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C23" s="9" t="str">
         <f t="shared" si="5"/>
         <v>LOC_CIVINFO_FELINE_LOCATION</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -3947,17 +3992,17 @@
     </row>
     <row r="24" spans="1:12" ht="36.75" customHeight="1">
       <c r="A24" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>303</v>
       </c>
       <c r="C24" s="10" t="str">
         <f t="shared" si="5"/>
         <v>LOC_CIVINFO_FELINE_SIZE</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -3976,17 +4021,17 @@
     </row>
     <row r="25" spans="1:12" ht="36.75" customHeight="1">
       <c r="A25" s="10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C25" s="9" t="str">
         <f t="shared" ref="C25:C26" si="8">_xlfn.CONCAT(A25,$D$2,B25)</f>
         <v>LOC_CIVINFO_FELINE_POPULATION</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -4005,10 +4050,10 @@
     </row>
     <row r="26" spans="1:12" ht="36.75" customHeight="1">
       <c r="A26" s="10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C26" s="10" t="str">
         <f t="shared" si="8"/>
@@ -4036,16 +4081,16 @@
       <c r="A27" s="10"/>
       <c r="B27" s="3"/>
       <c r="C27" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="D27" s="22" t="s">
         <v>273</v>
       </c>
+      <c r="D27" s="20" t="s">
+        <v>271</v>
+      </c>
       <c r="E27" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>299</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -4064,9 +4109,9 @@
       <c r="A28" s="10"/>
       <c r="B28" s="4"/>
       <c r="C28" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="D28" s="23"/>
+        <v>275</v>
+      </c>
+      <c r="D28" s="19"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -4086,9 +4131,9 @@
       <c r="A29" s="10"/>
       <c r="B29" s="3"/>
       <c r="C29" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="D29" s="23"/>
+        <v>276</v>
+      </c>
+      <c r="D29" s="19"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -4108,9 +4153,9 @@
       <c r="A30" s="10"/>
       <c r="B30" s="4"/>
       <c r="C30" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="D30" s="23"/>
+        <v>277</v>
+      </c>
+      <c r="D30" s="19"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -4130,9 +4175,9 @@
       <c r="A31" s="10"/>
       <c r="B31" s="3"/>
       <c r="C31" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="D31" s="23"/>
+        <v>278</v>
+      </c>
+      <c r="D31" s="19"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -4152,9 +4197,9 @@
       <c r="A32" s="10"/>
       <c r="B32" s="4"/>
       <c r="C32" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="D32" s="23"/>
+        <v>279</v>
+      </c>
+      <c r="D32" s="19"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -4174,9 +4219,9 @@
       <c r="A33" s="10"/>
       <c r="B33" s="3"/>
       <c r="C33" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="D33" s="23"/>
+        <v>280</v>
+      </c>
+      <c r="D33" s="19"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -4196,9 +4241,9 @@
       <c r="A34" s="10"/>
       <c r="B34" s="4"/>
       <c r="C34" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="D34" s="23"/>
+        <v>281</v>
+      </c>
+      <c r="D34" s="19"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -4218,9 +4263,9 @@
       <c r="A35" s="10"/>
       <c r="B35" s="3"/>
       <c r="C35" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="D35" s="23"/>
+        <v>282</v>
+      </c>
+      <c r="D35" s="19"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -4240,7 +4285,7 @@
       <c r="A36" s="10"/>
       <c r="B36" s="3"/>
       <c r="C36" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D36" s="21"/>
       <c r="E36" s="3"/>
@@ -4262,16 +4307,16 @@
       <c r="A37" s="10"/>
       <c r="B37" s="3"/>
       <c r="C37" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E37" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>296</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>298</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -4290,9 +4335,9 @@
       <c r="A38" s="10"/>
       <c r="B38" s="4"/>
       <c r="C38" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="D38" s="23"/>
+        <v>284</v>
+      </c>
+      <c r="D38" s="19"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -4312,9 +4357,9 @@
       <c r="A39" s="10"/>
       <c r="B39" s="3"/>
       <c r="C39" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="D39" s="23"/>
+        <v>285</v>
+      </c>
+      <c r="D39" s="19"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -4334,9 +4379,9 @@
       <c r="A40" s="10"/>
       <c r="B40" s="4"/>
       <c r="C40" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="D40" s="23"/>
+        <v>286</v>
+      </c>
+      <c r="D40" s="19"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
@@ -4356,9 +4401,9 @@
       <c r="A41" s="10"/>
       <c r="B41" s="3"/>
       <c r="C41" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="D41" s="23"/>
+        <v>287</v>
+      </c>
+      <c r="D41" s="19"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -4378,9 +4423,9 @@
       <c r="A42" s="10"/>
       <c r="B42" s="4"/>
       <c r="C42" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="D42" s="23"/>
+        <v>288</v>
+      </c>
+      <c r="D42" s="19"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -4400,9 +4445,9 @@
       <c r="A43" s="10"/>
       <c r="B43" s="3"/>
       <c r="C43" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="D43" s="23"/>
+        <v>289</v>
+      </c>
+      <c r="D43" s="19"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -4422,9 +4467,9 @@
       <c r="A44" s="10"/>
       <c r="B44" s="4"/>
       <c r="C44" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="D44" s="23"/>
+        <v>290</v>
+      </c>
+      <c r="D44" s="19"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -4444,9 +4489,9 @@
       <c r="A45" s="10"/>
       <c r="B45" s="3"/>
       <c r="C45" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="D45" s="23"/>
+        <v>291</v>
+      </c>
+      <c r="D45" s="19"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -4466,9 +4511,9 @@
       <c r="A46" s="10"/>
       <c r="B46" s="3"/>
       <c r="C46" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="D46" s="24"/>
+        <v>292</v>
+      </c>
+      <c r="D46" s="22"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -4534,11 +4579,11 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="79.5" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -5590,11 +5635,11 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="79.5" customHeight="1">
       <c r="A2" s="5" t="s">

--- a/Assets/模组参数生成器.xlsx
+++ b/Assets/模组参数生成器.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Admin\Documents\GitHub\Civ6_Modding_Textbook\Assets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775C633A-A4CA-4494-83B6-9087A20A8623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9060" firstSheet="2" activeTab="1"/>
+    <workbookView xWindow="7290" yWindow="4320" windowWidth="29310" windowHeight="15870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本参数" sheetId="6" r:id="rId1"/>
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="447">
   <si>
     <t>开发代号</t>
   </si>
@@ -253,12 +259,6 @@
     <t>领袖语录（要语音）</t>
   </si>
   <si>
-    <t>It makes you so happy when you can be with the people you like.</t>
-  </si>
-  <si>
-    <t>和喜欢的人待在一起，就会很开心。</t>
-  </si>
-  <si>
     <t>LOC_DIPLO_FIRST_MEET_LEADER_</t>
   </si>
   <si>
@@ -268,70 +268,34 @@
     <t>初见（要语音）</t>
   </si>
   <si>
-    <t>Oh, my codename is Mint. What's yours? Mrow! I am the mighty Jasper Kitty. Pet me.</t>
-  </si>
-  <si>
-    <t>那个，我的代号是薄绿，你呢？喵呜！我就是强而有力的猫咪贾斯伯。快宠我。</t>
-  </si>
-  <si>
     <t>LOC_DIPLO_DECLARE_WAR_FROM_HUMAN_LEADER_</t>
   </si>
   <si>
     <t>被宣战（要语音）</t>
   </si>
   <si>
-    <t>Please don't get in our way!</t>
-  </si>
-  <si>
-    <t>请不要妨碍我们！</t>
-  </si>
-  <si>
     <t>LOC_DIPLO_DECLARE_WAR_FROM_AI_LEADER_</t>
   </si>
   <si>
     <t>主动宣战（要语音）</t>
   </si>
   <si>
-    <t>Would you like to see some of my magic?</t>
-  </si>
-  <si>
-    <t>要不要看我变魔术？</t>
-  </si>
-  <si>
     <t>LOC_DIPLO_KUDO_EXIT_LEADER_</t>
   </si>
   <si>
     <t>赞赏玩家（要语音）</t>
   </si>
   <si>
-    <t>Heheh! If I get results this time, I can reapply to the Institution to resume my studies.</t>
-  </si>
-  <si>
-    <t>嘿嘿，如果这次能出结果，我就可以申请留校继续读书啦。</t>
-  </si>
-  <si>
     <t>LOC_DIPLO_WARNING_EXIT_LEADER_</t>
   </si>
   <si>
     <t>敌视玩家（要语音）</t>
   </si>
   <si>
-    <t>Ah, please don't go touching my book. It might bite your hand if you do.</t>
-  </si>
-  <si>
-    <t>啊，不可以，不能随便乱碰我的书，它会咬你的手。</t>
-  </si>
-  <si>
     <t>LOC_DIPLO_DEFEAT_FROM_AI_LEADER_</t>
   </si>
   <si>
     <t>战败（要语音）</t>
-  </si>
-  <si>
-    <t>We can't, it's too dangerous...</t>
-  </si>
-  <si>
-    <t>不行，危险......</t>
   </si>
   <si>
     <t>LOC_DIPLO_ACCEPT_MAKE_DEAL_FROM_AI_LEADER_</t>
@@ -458,9 +422,6 @@
   </si>
   <si>
     <t>LOC_DIPLO_GREETING_LEADER_</t>
-  </si>
-  <si>
-    <t>（不会出现在原版游戏中，但可保留以备其它mod启用）外交问候</t>
   </si>
   <si>
     <t>LOC_DIPLO_MAKE_PEACE_AI_ACCEPT_DEAL_LEADER_</t>
@@ -1239,18 +1200,260 @@
   <si>
     <t>柔爪萨莉四世</t>
   </si>
+  <si>
+    <t>Mrow! I am the mighty Jasper Kitty. Pet me.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>喵呜！我就是强而有力的猫咪贾斯伯。快宠我。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meow.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>喵。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meow, how dare you! All that you hold dear will turn to ash!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>好大的胆子喵！你所珍视的一切将化为灰烬喵！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meow, you have what I want, and I take what I want.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>你有我想要的，我来拿走我想要的喵。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meow, I am relieved to see that your empire poses no threat to ours.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meow, your cities are so close.  Your troops are so strong.  You are making me nervous!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的城市这么靠近，你的部队这么强大。你让我紧张了喵！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>我很高兴看到您的帝国不对我们构成威胁喵。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meow, I never thought I would see the end so soon!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meow, thank you. I think this will benefit each of us.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢谢喵。这将使我们双方都受益喵。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meow, I must say, I'm a bit disappointed.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>我必须说，我有点失望喵。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meow, this situation is going to get worse before it gets any better.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>看来情况是要越来越糟糕了喵。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>全世界都应该知道你的罪过。（谴责你）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meow, the world needs to be aware of your transgressions (Denounces You).</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meow, your troops tread too close to my borders. I hope it's just to view our picturesque countryside.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的部队太靠近我的边境了喵。我希望他们只是在欣赏我国风景如画的乡村风光喵。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meow, neither of us hails from nearby, but perhaps we should mark our homelands on each other's maps?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们并不相邻，或许我们应该在对方的地图里标注出自己的位置喵。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meow, we are happy to welcome your delegation to our capital.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meow, we politely refuse your delegation.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meow, will you receive our diplomatic delegation in your capital?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meow, we are pleased to accept your offer of friendship.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meow, we are not interested at this time.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们很高兴地欢迎贵国代表团来我国首都喵。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们礼貌地拒绝您的代表团喵。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>您愿意在您首都接见我国外交团吗喵？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们很高兴接受您的友谊喵。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们目前不感兴趣喵。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meow, Would you like to formally declare our friendship?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>您愿意正式宣布我们的友谊吗？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meow, would you like to form an alliance?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>您想结为盟友吗喵？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mighty Feline King</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>伟大猫猫王</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>（不会出现在原版游戏中，但可保留以备其它mod启用）外交问候</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meow, what do you wish of me?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meow, I accept your terms for peace.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meow, there can be no peace between us!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meow, peace, mmkay?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meow, we are happy to open up our borders to your units.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meow, will you allow our units to cross through your territory?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>您希望我做什么喵？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>我接受您的和平条款喵。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们之间没有和平喵！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>和平，好喵？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们很高兴为您的军队打开边境喵。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>您允许我们军队穿越您的领土喵？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>我从未想过这么快就失败了喵！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Worldwide</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>全世界</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Very large!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Very high!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{LOC_CITY_NAME_PAWTIMORE}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>超大！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>超多！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1275,154 +1478,17 @@
       <sz val="11"/>
       <color rgb="FFCCCCCC"/>
       <name val="Cascadia Code"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1447,194 +1513,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1711,253 +1591,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1977,26 +1615,41 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2007,76 +1660,29 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00B9D7EA"/>
+      <color rgb="FFB9D7EA"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2334,349 +1940,348 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="32.5" customWidth="1"/>
-    <col min="2" max="2" width="27.6296296296296" customWidth="1"/>
-    <col min="3" max="3" width="70.1296296296296" customWidth="1"/>
+    <col min="2" max="2" width="27.625" customWidth="1"/>
+    <col min="3" max="3" width="70.125" customWidth="1"/>
     <col min="4" max="4" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="16.2" spans="1:6">
+    <row r="2" spans="1:6" ht="16.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="19" t="str">
+      <c r="D2" s="13" t="str">
         <f>UPPER(SUBSTITUTE($B$2," ","_"))</f>
         <v>FELINE_JASPER_KITTY</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="19" t="str">
+      <c r="F2" s="13" t="str">
         <f>_xlfn.CONCAT(C2,D2,E2)</f>
-        <v>      &lt;CustomParameter Name="$MOD_CODENAME$" Value="FELINE_JASPER_KITTY"/&gt;</v>
-      </c>
-    </row>
-    <row r="3" ht="16.2" spans="1:6">
+        <v>&lt;CustomParameter Name="$MOD_CODENAME$" Value="FELINE_JASPER_KITTY"/&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="19" t="str">
+      <c r="D3" s="13" t="str">
         <f>UPPER(SUBSTITUTE($B$3," ","_"))</f>
         <v>FELINE</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="19" t="str">
+      <c r="F3" s="13" t="str">
         <f t="shared" ref="F3:F13" si="0">_xlfn.CONCAT(C3,D3,E3)</f>
-        <v>      &lt;CustomParameter Name="$CIV_TYPE$" Value="FELINE"/&gt;</v>
-      </c>
-    </row>
-    <row r="4" ht="16.2" spans="1:6">
+        <v>&lt;CustomParameter Name="$CIV_TYPE$" Value="FELINE"/&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="19" t="str">
+      <c r="D4" s="13" t="str">
         <f>SUBSTITUTE($B$3," ",)</f>
         <v>Feline</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>      &lt;CustomParameter Name="$CivType$" Value="Feline"/&gt;</v>
-      </c>
-    </row>
-    <row r="5" ht="16.2" spans="1:6">
+      <c r="F4" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;CustomParameter Name="$CivType$" Value="Feline"/&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="19" t="str">
+      <c r="D5" s="13" t="str">
         <f>UPPER(SUBSTITUTE($B$4," ","_"))</f>
         <v>JASPER_KITTY</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>      &lt;CustomParameter Name="$LEADER_TYPE$" Value="JASPER_KITTY"/&gt;</v>
-      </c>
-    </row>
-    <row r="6" ht="16.2" spans="1:6">
+      <c r="F5" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;CustomParameter Name="$LEADER_TYPE$" Value="JASPER_KITTY"/&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="19" t="str">
+      <c r="D6" s="13" t="str">
         <f>SUBSTITUTE($B$4," ",)</f>
         <v>JasperKitty</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>      &lt;CustomParameter Name="$LeaderType$" Value="JasperKitty"/&gt;</v>
-      </c>
-    </row>
-    <row r="7" ht="16.2" spans="1:6">
+      <c r="F6" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;CustomParameter Name="$LeaderType$" Value="JasperKitty"/&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5">
       <c r="A7" t="s">
         <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="19" t="str">
+      <c r="D7" s="13" t="str">
         <f>UPPER(SUBSTITUTE($B$5," ","_"))</f>
         <v>PAWTIMORE</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>      &lt;CustomParameter Name="$CAPITAL_TYPE$" Value="PAWTIMORE"/&gt;</v>
-      </c>
-    </row>
-    <row r="8" ht="16.2" spans="1:6">
+      <c r="F7" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;CustomParameter Name="$CAPITAL_TYPE$" Value="PAWTIMORE"/&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5">
       <c r="A8" t="s">
         <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="19" t="str">
+      <c r="D8" s="13" t="str">
         <f>UPPER(SUBSTITUTE($B$6," ","_"))</f>
         <v>CAT_LIKE_REFLEXES</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>      &lt;CustomParameter Name="$TRAIT_TYPE$" Value="CAT_LIKE_REFLEXES"/&gt;</v>
-      </c>
-    </row>
-    <row r="9" ht="16.2" spans="1:6">
+      <c r="F8" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;CustomParameter Name="$TRAIT_TYPE$" Value="CAT_LIKE_REFLEXES"/&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5">
       <c r="A9" t="s">
         <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="19" t="str">
+      <c r="D9" s="13" t="str">
         <f>UPPER(SUBSTITUTE($B$7," ","_"))</f>
         <v>KITTY_CLAWS</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>      &lt;CustomParameter Name="$LEADTRAIT_TYPE$" Value="KITTY_CLAWS"/&gt;</v>
-      </c>
-    </row>
-    <row r="10" ht="16.2" spans="1:6">
+      <c r="F9" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;CustomParameter Name="$LEADTRAIT_TYPE$" Value="KITTY_CLAWS"/&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5">
       <c r="A10" t="s">
         <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="19" t="str">
+      <c r="D10" s="13" t="str">
         <f>UPPER(SUBSTITUTE($B$9," ","_"))</f>
         <v>UNIT_KITTEN</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>      &lt;CustomParameter Name="$UNIQUE_ITEM_1_TYPE$" Value="UNIT_KITTEN"/&gt;</v>
-      </c>
-    </row>
-    <row r="11" ht="16.2" spans="1:6">
+      <c r="F10" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;CustomParameter Name="$UNIQUE_ITEM_1_TYPE$" Value="UNIT_KITTEN"/&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5">
       <c r="A11" t="s">
         <v>28</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="19" t="str">
+      <c r="D11" s="13" t="str">
         <f>UPPER(SUBSTITUTE($B$10," ","_"))</f>
         <v>BUILDING_LITTER_BOX</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>      &lt;CustomParameter Name="$UNIQUE_ITEM_2_TYPE$" Value="BUILDING_LITTER_BOX"/&gt;</v>
-      </c>
-    </row>
-    <row r="12" ht="16.2" spans="1:6">
+      <c r="F11" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;CustomParameter Name="$UNIQUE_ITEM_2_TYPE$" Value="BUILDING_LITTER_BOX"/&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5">
       <c r="A12" t="s">
         <v>31</v>
       </c>
       <c r="B12" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="19" t="str">
+      <c r="D12" s="13" t="str">
         <f>UPPER(SUBSTITUTE($B$8," ","_"))</f>
         <v>JASPER_KITTY_AGENDA</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>      &lt;CustomParameter Name="$AGENDA_TYPE$" Value="JASPER_KITTY_AGENDA"/&gt;</v>
-      </c>
-    </row>
-    <row r="13" ht="16.2" spans="3:6">
-      <c r="C13" s="19" t="s">
+      <c r="F12" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;CustomParameter Name="$AGENDA_TYPE$" Value="JASPER_KITTY_AGENDA"/&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.5">
+      <c r="C13" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="19" t="str">
+      <c r="D13" s="13" t="str">
         <f>UPPER(SUBSTITUTE($B$11," ","_"))</f>
         <v>FELI</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>      &lt;CustomParameter Name="$CIV_ABBR$" Value="FELI"/&gt;</v>
-      </c>
-    </row>
-    <row r="14" ht="16.2" spans="3:6">
-      <c r="C14" s="19" t="s">
+      <c r="F13" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;CustomParameter Name="$CIV_ABBR$" Value="FELI"/&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5">
+      <c r="C14" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="19" t="str">
+      <c r="D14" s="13" t="str">
         <f>UPPER(SUBSTITUTE($B$12," ","_"))</f>
         <v>JK</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="19" t="str">
+      <c r="F14" s="13" t="str">
         <f t="shared" ref="F14" si="1">_xlfn.CONCAT(C14,D14,E14)</f>
-        <v>      &lt;CustomParameter Name="$LEAD_ABBR$" Value="JK"/&gt;</v>
+        <v>&lt;CustomParameter Name="$LEAD_ABBR$" Value="JK"/&gt;</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="40.6296296296296" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="40.625" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="71.25" customWidth="1"/>
-    <col min="4" max="4" width="36.8796296296296" style="9" customWidth="1"/>
+    <col min="4" max="4" width="36.875" style="8" customWidth="1"/>
     <col min="5" max="5" width="44" customWidth="1"/>
-    <col min="6" max="6" width="56.3796296296296" customWidth="1"/>
-    <col min="7" max="7" width="15.6296296296296" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="56.375" customWidth="1"/>
+    <col min="7" max="7" width="15.625" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="8.62962962962963" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="4.37962962962963" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="81.8796296296296" customWidth="1"/>
-    <col min="12" max="12" width="92.3796296296296" customWidth="1"/>
+    <col min="9" max="9" width="8.625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="4.375" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="81.875" customWidth="1"/>
+    <col min="12" max="12" width="92.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="21.6" customHeight="1" spans="1:12">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="21.6" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="21.6" customHeight="1" spans="1:12">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="21.6" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
@@ -2703,12 +2308,12 @@
       <c r="J2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" ht="118.5" customHeight="1" spans="1:12">
+      <c r="L2" s="15"/>
+    </row>
+    <row r="3" spans="1:12" ht="118.5" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>45</v>
       </c>
@@ -2739,2482 +2344,2589 @@
         <v>&lt;Row Tag="LOC_LOADING_INFO_LEADER_JASPER_KITTY" Language="zh_Hans_CN" Text="猫咪贾斯伯，统治世界吧！您已磨利了尖牙和爪子，准备好以闪电般的速度探索。歇脚时，在猫砂盆里宣告自己的主权，让仆人为你清洁。带领猫咪军团闪击敌人吧，教会他们：文明猫猫，也会哈气。"/&gt;</v>
       </c>
     </row>
-    <row r="4" ht="36.75" customHeight="1" spans="1:12">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A4" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="10" t="str">
+        <f>_xlfn.CONCAT(A4,$D$2,B4)</f>
+        <v>LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY _SUBTITLE</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="10" t="str">
+        <f>CLEAN(_xlfn.CONCAT($G$2,$C4,$H$2,E$2,$I$2,E4,$J$2))</f>
+        <v>&lt;Row Tag="LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY _SUBTITLE" Language="en_US" Text="Mighty Feline King"/&gt;</v>
+      </c>
+      <c r="L4" s="10" t="str">
+        <f>CLEAN(_xlfn.CONCAT($G$2,$C4,$H$2,F$2,$I$2,F4,$J$2))</f>
+        <v>&lt;Row Tag="LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY _SUBTITLE" Language="zh_Hans_CN" Text="伟大猫猫王"/&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="11" t="str">
+      <c r="C5" s="9" t="str">
         <f t="shared" si="0"/>
         <v>LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY_CHAPTER_CAPSULE_BODY</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="11" t="str">
-        <f t="shared" ref="K4" si="1">CLEAN(_xlfn.CONCAT($G$2,$C4,$H$2,E$2,$I$2,E4,$J$2))</f>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="9" t="str">
+        <f t="shared" ref="K5" si="1">CLEAN(_xlfn.CONCAT($G$2,$C5,$H$2,E$2,$I$2,E5,$J$2))</f>
         <v>&lt;Row Tag="LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY_CHAPTER_CAPSULE_BODY" Language="en_US" Text="Jasper kitty is a beginner-friendly feline. He teachs people how to write a simple but powerful leader."/&gt;</v>
       </c>
-      <c r="L4" s="11" t="str">
-        <f t="shared" ref="L4" si="2">CLEAN(_xlfn.CONCAT($G$2,$C4,$H$2,F$2,$I$2,F4,$J$2))</f>
+      <c r="L5" s="9" t="str">
+        <f t="shared" ref="L5" si="2">CLEAN(_xlfn.CONCAT($G$2,$C5,$H$2,F$2,$I$2,F5,$J$2))</f>
         <v>&lt;Row Tag="LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY_CHAPTER_CAPSULE_BODY" Language="zh_Hans_CN" Text="猫咪贾斯伯是一只对新手友好的猫，他将教会人们怎么编写一个简单而强大的领袖。"/&gt;</v>
       </c>
     </row>
-    <row r="5" ht="168.75" customHeight="1" spans="1:12">
-      <c r="A5" s="13" t="s">
+    <row r="6" spans="1:12" ht="168.75" customHeight="1">
+      <c r="A6" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="13" t="str">
+      <c r="C6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY_CHAPTER_DETAILED_BODY</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="13" t="str">
-        <f t="shared" ref="K5:L46" si="3">CLEAN(_xlfn.CONCAT($G$2,$C5,$H$2,E$2,$I$2,E5,$J$2))</f>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="10" t="str">
+        <f t="shared" ref="K6:L46" si="3">CLEAN(_xlfn.CONCAT($G$2,$C6,$H$2,E$2,$I$2,E6,$J$2))</f>
         <v>&lt;Row Tag="LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY_CHAPTER_DETAILED_BODY" Language="en_US" Text="Jasper kitty has traits that are powerful since the early game and easy to write. By using simple modifiers and unit abilities, they will acquire strong yield and combat bonuses and make themselves a contender for any victory. Be sure to build a Litter Box which provides bonus [ICON_Culture] essential for city development in every city you have. It will be up to you to design you own mod by yourself after you make this mod successfully!"/&gt;</v>
       </c>
-      <c r="L5" s="13" t="str">
+      <c r="L6" s="10" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Row Tag="LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY_CHAPTER_DETAILED_BODY" Language="zh_Hans_CN" Text="猫咪贾斯伯的特性易于编写，且在游戏早期就十分强大。使用简单的修正和单位能力，他们就能获得强大的产出和战斗加成，使他们适合追求所有类型的胜利路线。务必在每一座城市都建造“猫砂盆”建筑，它提供的额外的 [ICON_Culture] 文化值对城市发展至关重要。您成功自己编写完成这个领袖以后，模组设计的广阔天地就任您发挥了！"/&gt;</v>
       </c>
     </row>
-    <row r="6" ht="36.75" customHeight="1" spans="1:12">
-      <c r="A6" s="11" t="s">
+    <row r="7" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="11" t="str">
+      <c r="C7" s="9" t="str">
         <f t="shared" si="0"/>
         <v>LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY_CHAPTER_HISTORY_PARA_1</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D7" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="11" t="str">
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="9" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Row Tag="LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY_CHAPTER_HISTORY_PARA_1" Language="en_US" Text="Born in 2010, Jasper kitty grew to power at a young age…"/&gt;</v>
       </c>
-      <c r="L6" s="11" t="str">
+      <c r="L7" s="9" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Row Tag="LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY_CHAPTER_HISTORY_PARA_1" Language="zh_Hans_CN" Text="猫咪贾斯伯出生于2010年，他年纪轻轻便大权在握……"/&gt;</v>
       </c>
     </row>
-    <row r="7" ht="36.75" customHeight="1" spans="1:12">
-      <c r="A7" s="13" t="s">
+    <row r="8" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A8" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="13" t="str">
+      <c r="C8" s="10" t="str">
         <f t="shared" si="0"/>
         <v>LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY_CHAPTER_HISTORY_PARA_2</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="13" t="str">
+      <c r="D8" s="17"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="10" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Row Tag="LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY_CHAPTER_HISTORY_PARA_2" Language="en_US" Text=""/&gt;</v>
       </c>
-      <c r="L7" s="13" t="str">
+      <c r="L8" s="10" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Row Tag="LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY_CHAPTER_HISTORY_PARA_2" Language="zh_Hans_CN" Text=""/&gt;</v>
       </c>
     </row>
-    <row r="8" ht="36.75" customHeight="1" spans="1:12">
-      <c r="A8" s="11" t="s">
+    <row r="9" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A9" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="11" t="str">
+      <c r="C9" s="9" t="str">
         <f t="shared" si="0"/>
         <v>LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY_CHAPTER_HISTORY_PARA_3</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="11" t="str">
+      <c r="D9" s="16"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="9" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Row Tag="LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY_CHAPTER_HISTORY_PARA_3" Language="en_US" Text=""/&gt;</v>
       </c>
-      <c r="L8" s="11" t="str">
+      <c r="L9" s="9" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Row Tag="LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY_CHAPTER_HISTORY_PARA_3" Language="zh_Hans_CN" Text=""/&gt;</v>
       </c>
     </row>
-    <row r="9" ht="36.75" customHeight="1" spans="1:12">
-      <c r="A9" s="13" t="s">
+    <row r="10" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A10" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B10" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="13" t="str">
+      <c r="C10" s="10" t="str">
         <f t="shared" si="0"/>
         <v>LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY_CHAPTER_HISTORY_PARA_4</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="13" t="str">
+      <c r="D10" s="17"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="10" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Row Tag="LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY_CHAPTER_HISTORY_PARA_4" Language="en_US" Text=""/&gt;</v>
       </c>
-      <c r="L9" s="13" t="str">
+      <c r="L10" s="10" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Row Tag="LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY_CHAPTER_HISTORY_PARA_4" Language="zh_Hans_CN" Text=""/&gt;</v>
       </c>
     </row>
-    <row r="10" ht="36.75" customHeight="1" spans="1:12">
-      <c r="A10" s="11" t="s">
+    <row r="11" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A11" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="11" t="str">
+      <c r="C11" s="9" t="str">
         <f t="shared" si="0"/>
         <v>LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY_CHAPTER_HISTORY_PARA_5</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="11" t="str">
+      <c r="D11" s="16"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="9" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Row Tag="LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY_CHAPTER_HISTORY_PARA_5" Language="en_US" Text=""/&gt;</v>
       </c>
-      <c r="L10" s="11" t="str">
+      <c r="L11" s="9" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Row Tag="LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY_CHAPTER_HISTORY_PARA_5" Language="zh_Hans_CN" Text=""/&gt;</v>
       </c>
     </row>
-    <row r="11" ht="36.75" customHeight="1" spans="1:12">
-      <c r="A11" s="13" t="s">
+    <row r="12" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A12" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B12" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="13" t="str">
+      <c r="C12" s="10" t="str">
         <f t="shared" si="0"/>
         <v>LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY_CHAPTER_HISTORY_PARA_6</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="13" t="str">
+      <c r="D12" s="17"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="10" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Row Tag="LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY_CHAPTER_HISTORY_PARA_6" Language="en_US" Text=""/&gt;</v>
       </c>
-      <c r="L11" s="13" t="str">
+      <c r="L12" s="10" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Row Tag="LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY_CHAPTER_HISTORY_PARA_6" Language="zh_Hans_CN" Text=""/&gt;</v>
       </c>
     </row>
-    <row r="12" ht="36.75" customHeight="1" spans="1:12">
-      <c r="A12" s="11" t="s">
+    <row r="13" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A13" s="9" t="s">
         <v>49</v>
       </c>
+      <c r="B13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY_CHAPTER_HISTORY_PARA_7</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Row Tag="LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY_CHAPTER_HISTORY_PARA_7" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L13" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Row Tag="LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY_CHAPTER_HISTORY_PARA_7" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A14" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY_CHAPTER_HISTORY_PARA_8</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Row Tag="LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY_CHAPTER_HISTORY_PARA_8" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L14" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Row Tag="LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY_CHAPTER_HISTORY_PARA_8" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A15" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY_CHAPTER_HISTORY_PARA_9</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Row Tag="LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY_CHAPTER_HISTORY_PARA_9" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L15" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Row Tag="LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY_CHAPTER_HISTORY_PARA_9" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="16.5">
+      <c r="A16" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="10" t="str">
+        <f t="shared" ref="C16:C24" si="4">_xlfn.CONCAT(A16,$D$2,B16)</f>
+        <v>LOC_LEADER_JASPER_KITTY_QUOTE</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="10" t="str">
+        <f t="shared" ref="K16:L22" si="5">CLEAN(_xlfn.CONCAT($G$2,$C16,$H$2,E$2,$I$2,E16,$J$2))</f>
+        <v>&lt;Row Tag="LOC_LEADER_JASPER_KITTY_QUOTE" Language="en_US" Text="Meow."/&gt;</v>
+      </c>
+      <c r="L16" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;Row Tag="LOC_LEADER_JASPER_KITTY_QUOTE" Language="zh_Hans_CN" Text="喵。"/&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="94.5" customHeight="1">
+      <c r="A17" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>LOC_DIPLO_FIRST_MEET_LEADER_JASPER_KITTY_ANY</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;Row Tag="LOC_DIPLO_FIRST_MEET_LEADER_JASPER_KITTY_ANY" Language="en_US" Text="Mrow! I am the mighty Jasper Kitty. Pet me."/&gt;</v>
+      </c>
+      <c r="L17" s="9" t="str">
+        <f>CLEAN(_xlfn.CONCAT($G$2,$C17,$H$2,F$2,$I$2,F17,$J$2))</f>
+        <v>&lt;Row Tag="LOC_DIPLO_FIRST_MEET_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text="喵呜！我就是强而有力的猫咪贾斯伯。快宠我。"/&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="33">
+      <c r="A18" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>LOC_DIPLO_DECLARE_WAR_FROM_HUMAN_LEADER_JASPER_KITTY_ANY</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;Row Tag="LOC_DIPLO_DECLARE_WAR_FROM_HUMAN_LEADER_JASPER_KITTY_ANY" Language="en_US" Text="Meow, how dare you! All that you hold dear will turn to ash!"/&gt;</v>
+      </c>
+      <c r="L18" s="10" t="str">
+        <f>CLEAN(_xlfn.CONCAT($G$2,$C18,$H$2,F$2,$I$2,F18,$J$2))</f>
+        <v>&lt;Row Tag="LOC_DIPLO_DECLARE_WAR_FROM_HUMAN_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text="好大的胆子喵！你所珍视的一切将化为灰烬喵！"/&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="33">
+      <c r="A19" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>LOC_DIPLO_DECLARE_WAR_FROM_AI_LEADER_JASPER_KITTY_ANY</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;Row Tag="LOC_DIPLO_DECLARE_WAR_FROM_AI_LEADER_JASPER_KITTY_ANY" Language="en_US" Text="Meow, you have what I want, and I take what I want."/&gt;</v>
+      </c>
+      <c r="L19" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;Row Tag="LOC_DIPLO_DECLARE_WAR_FROM_AI_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text="你有我想要的，我来拿走我想要的喵。"/&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="33">
+      <c r="A20" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>LOC_DIPLO_KUDO_EXIT_LEADER_JASPER_KITTY_ANY</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;Row Tag="LOC_DIPLO_KUDO_EXIT_LEADER_JASPER_KITTY_ANY" Language="en_US" Text="Meow, I am relieved to see that your empire poses no threat to ours."/&gt;</v>
+      </c>
+      <c r="L20" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;Row Tag="LOC_DIPLO_KUDO_EXIT_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text="我很高兴看到您的帝国不对我们构成威胁喵。"/&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="33">
+      <c r="A21" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>LOC_DIPLO_WARNING_EXIT_LEADER_JASPER_KITTY_ANY</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="10" t="str">
+        <f>CLEAN(_xlfn.CONCAT($G$2,$C21,$H$2,E$2,$I$2,E21,$J$2))</f>
+        <v>&lt;Row Tag="LOC_DIPLO_WARNING_EXIT_LEADER_JASPER_KITTY_ANY" Language="en_US" Text="Meow, your cities are so close.  Your troops are so strong.  You are making me nervous!"/&gt;</v>
+      </c>
+      <c r="L21" s="10" t="str">
+        <f>CLEAN(_xlfn.CONCAT($G$2,$C21,$H$2,F$2,$I$2,F21,$J$2))</f>
+        <v>&lt;Row Tag="LOC_DIPLO_WARNING_EXIT_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text="你的城市这么靠近，你的部队这么强大。你让我紧张了喵！"/&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="33">
+      <c r="A22" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>LOC_DIPLO_DEFEAT_FROM_AI_LEADER_JASPER_KITTY_ANY</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;Row Tag="LOC_DIPLO_DEFEAT_FROM_AI_LEADER_JASPER_KITTY_ANY" Language="en_US" Text="Meow, I never thought I would see the end so soon!"/&gt;</v>
+      </c>
+      <c r="L22" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;Row Tag="LOC_DIPLO_DEFEAT_FROM_AI_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text="我从未想过这么快就失败了喵！"/&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="33">
+      <c r="A23" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>LOC_DIPLO_ACCEPT_MAKE_DEAL_FROM_AI_LEADER_JASPER_KITTY_ANY</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="10" t="str">
+        <f>CLEAN(_xlfn.CONCAT($G$2,$C23,$H$2,E$2,$I$2,E23,$J$2))</f>
+        <v>&lt;Row Tag="LOC_DIPLO_ACCEPT_MAKE_DEAL_FROM_AI_LEADER_JASPER_KITTY_ANY" Language="en_US" Text="Meow, thank you. I think this will benefit each of us."/&gt;</v>
+      </c>
+      <c r="L23" s="10" t="str">
+        <f>CLEAN(_xlfn.CONCAT($G$2,$C23,$H$2,F$2,$I$2,F23,$J$2))</f>
+        <v>&lt;Row Tag="LOC_DIPLO_ACCEPT_MAKE_DEAL_FROM_AI_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text="谢谢喵。这将使我们双方都受益喵。"/&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="33">
+      <c r="A24" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>LOC_DIPLO_REJECT_MAKE_DEAL_FROM_AI_LEADER_JASPER_KITTY_ANY</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="9" t="str">
+        <f>CLEAN(_xlfn.CONCAT($G$2,$C24,$H$2,E$2,$I$2,E24,$J$2))</f>
+        <v>&lt;Row Tag="LOC_DIPLO_REJECT_MAKE_DEAL_FROM_AI_LEADER_JASPER_KITTY_ANY" Language="en_US" Text="Meow, I must say, I'm a bit disappointed."/&gt;</v>
+      </c>
+      <c r="L24" s="9" t="str">
+        <f>CLEAN(_xlfn.CONCAT($G$2,$C24,$H$2,F$2,$I$2,F24,$J$2))</f>
+        <v>&lt;Row Tag="LOC_DIPLO_REJECT_MAKE_DEAL_FROM_AI_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text="我必须说，我有点失望喵。"/&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="33">
+      <c r="A25" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>LOC_DIPLO_DENOUNCE_FROM_HUMAN_LEADER_JASPER_KITTY_ANY</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Row Tag="LOC_DIPLO_DENOUNCE_FROM_HUMAN_LEADER_JASPER_KITTY_ANY" Language="en_US" Text="Meow, this situation is going to get worse before it gets any better."/&gt;</v>
+      </c>
+      <c r="L25" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Row Tag="LOC_DIPLO_DENOUNCE_FROM_HUMAN_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text="看来情况是要越来越糟糕了喵。"/&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="33">
+      <c r="A26" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>LOC_DIPLO_DENOUNCE_FROM_AI_LEADER_JASPER_KITTY_ANY</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Row Tag="LOC_DIPLO_DENOUNCE_FROM_AI_LEADER_JASPER_KITTY_ANY" Language="en_US" Text="Meow, the world needs to be aware of your transgressions (Denounces You)."/&gt;</v>
+      </c>
+      <c r="L26" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Row Tag="LOC_DIPLO_DENOUNCE_FROM_AI_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text="全世界都应该知道你的罪过。（谴责你）"/&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="71.25" customHeight="1">
+      <c r="A27" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>LOC_DIPLO_WARNING_TOO_MANY_TROOPS_NEAR_ME_LEADER_JASPER_KITTY_ANY</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="10" t="str">
+        <f>CLEAN(_xlfn.CONCAT($G$2,$C27,$H$2,E$2,$I$2,E27,$J$2))</f>
+        <v>&lt;Row Tag="LOC_DIPLO_WARNING_TOO_MANY_TROOPS_NEAR_ME_LEADER_JASPER_KITTY_ANY" Language="en_US" Text="Meow, your troops tread too close to my borders. I hope it's just to view our picturesque countryside."/&gt;</v>
+      </c>
+      <c r="L27" s="10" t="str">
+        <f>CLEAN(_xlfn.CONCAT($G$2,$C27,$H$2,F$2,$I$2,F27,$J$2))</f>
+        <v>&lt;Row Tag="LOC_DIPLO_WARNING_TOO_MANY_TROOPS_NEAR_ME_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text="您的部队太靠近我的边境了喵。我希望他们只是在欣赏我国风景如画的乡村风光喵。"/&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="127.5" customHeight="1">
+      <c r="A28" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>LOC_DIPLO_FIRST_MEET_VISIT_RECIPIENT_LEADER_JASPER_KITTY_ANY</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="9" t="str">
+        <f>CLEAN(_xlfn.CONCAT($G$2,$C28,$H$2,E$2,$I$2,E28,$J$2))</f>
+        <v>&lt;Row Tag="LOC_DIPLO_FIRST_MEET_VISIT_RECIPIENT_LEADER_JASPER_KITTY_ANY" Language="en_US" Text="I haz a box. Wanna see?"/&gt;</v>
+      </c>
+      <c r="L28" s="9" t="str">
+        <f>CLEAN(_xlfn.CONCAT($G$2,$C28,$H$2,F$2,$I$2,F28,$J$2))</f>
+        <v>&lt;Row Tag="LOC_DIPLO_FIRST_MEET_VISIT_RECIPIENT_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text="我有个猫窝。你要来看吗？"/&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="46.5" customHeight="1">
+      <c r="A29" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>LOC_DIPLO_FIRST_MEET_NEAR_INITIATOR_POSITIVE_LEADER_JASPER_KITTY_ANY</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Row Tag="LOC_DIPLO_FIRST_MEET_NEAR_INITIATOR_POSITIVE_LEADER_JASPER_KITTY_ANY" Language="en_US" Text="Let me rub my face on all of your stuff so that it will be mine."/&gt;</v>
+      </c>
+      <c r="L29" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Row Tag="LOC_DIPLO_FIRST_MEET_NEAR_INITIATOR_POSITIVE_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text="我要在你的东西上都蹭蹭脸，这样它们就是我的啦。"/&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="49.5">
+      <c r="A30" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>LOC_DIPLO_FIRST_MEET_NO_MANS_INFO_EXCHANGE_LEADER_JASPER_KITTY_ANY</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Row Tag="LOC_DIPLO_FIRST_MEET_NO_MANS_INFO_EXCHANGE_LEADER_JASPER_KITTY_ANY" Language="en_US" Text="Meow, neither of us hails from nearby, but perhaps we should mark our homelands on each other's maps?"/&gt;</v>
+      </c>
+      <c r="L30" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Row Tag="LOC_DIPLO_FIRST_MEET_NO_MANS_INFO_EXCHANGE_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text="我们并不相邻，或许我们应该在对方的地图里标注出自己的位置喵。"/&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="33">
+      <c r="A31" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>LOC_DIPLO_ACCEPT_DELEGATION_FROM_HUMAN_LEADER_JASPER_KITTY_ANY</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="10" t="str">
+        <f t="shared" ref="K31:L33" si="6">CLEAN(_xlfn.CONCAT($G$2,$C31,$H$2,E$2,$I$2,E31,$J$2))</f>
+        <v>&lt;Row Tag="LOC_DIPLO_ACCEPT_DELEGATION_FROM_HUMAN_LEADER_JASPER_KITTY_ANY" Language="en_US" Text="Meow, we are happy to welcome your delegation to our capital."/&gt;</v>
+      </c>
+      <c r="L31" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;Row Tag="LOC_DIPLO_ACCEPT_DELEGATION_FROM_HUMAN_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text="我们很高兴地欢迎贵国代表团来我国首都喵。"/&gt;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="33">
+      <c r="A32" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>LOC_DIPLO_REJECT_DELEGATION_FROM_HUMAN_LEADER_JASPER_KITTY_ANY</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;Row Tag="LOC_DIPLO_REJECT_DELEGATION_FROM_HUMAN_LEADER_JASPER_KITTY_ANY" Language="en_US" Text="Meow, we politely refuse your delegation."/&gt;</v>
+      </c>
+      <c r="L32" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;Row Tag="LOC_DIPLO_REJECT_DELEGATION_FROM_HUMAN_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text="我们礼貌地拒绝您的代表团喵。"/&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="33">
+      <c r="A33" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>LOC_DIPLO_DELEGATION_FROM_AI_LEADER_JASPER_KITTY_ANY</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;Row Tag="LOC_DIPLO_DELEGATION_FROM_AI_LEADER_JASPER_KITTY_ANY" Language="en_US" Text="Meow, will you receive our diplomatic delegation in your capital?"/&gt;</v>
+      </c>
+      <c r="L33" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;Row Tag="LOC_DIPLO_DELEGATION_FROM_AI_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text="您愿意在您首都接见我国外交团吗喵？"/&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="33">
+      <c r="A34" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>LOC_DIPLO_ACCEPT_DECLARE_FRIEND_FROM_HUMAN_LEADER_JASPER_KITTY_ANY</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Row Tag="LOC_DIPLO_ACCEPT_DECLARE_FRIEND_FROM_HUMAN_LEADER_JASPER_KITTY_ANY" Language="en_US" Text="Meow, we are pleased to accept your offer of friendship."/&gt;</v>
+      </c>
+      <c r="L34" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Row Tag="LOC_DIPLO_ACCEPT_DECLARE_FRIEND_FROM_HUMAN_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text="我们很高兴接受您的友谊喵。"/&gt;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="33">
+      <c r="A35" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>LOC_DIPLO_REJECT_DECLARE_FRIEND_FROM_HUMAN_LEADER_JASPER_KITTY_ANY</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Row Tag="LOC_DIPLO_REJECT_DECLARE_FRIEND_FROM_HUMAN_LEADER_JASPER_KITTY_ANY" Language="en_US" Text="Meow, we are not interested at this time."/&gt;</v>
+      </c>
+      <c r="L35" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Row Tag="LOC_DIPLO_REJECT_DECLARE_FRIEND_FROM_HUMAN_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text="我们目前不感兴趣喵。"/&gt;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="33">
+      <c r="A36" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>LOC_DIPLO_DECLARE_FRIEND_FROM_AI_LEADER_JASPER_KITTY_ANY</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Row Tag="LOC_DIPLO_DECLARE_FRIEND_FROM_AI_LEADER_JASPER_KITTY_ANY" Language="en_US" Text="Meow, Would you like to formally declare our friendship?"/&gt;</v>
+      </c>
+      <c r="L36" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Row Tag="LOC_DIPLO_DECLARE_FRIEND_FROM_AI_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text="您愿意正式宣布我们的友谊吗？"/&gt;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="33">
+      <c r="A37" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>LOC_DIPLO_ACCEPT_DECLARE_FRIEND_FROM_AI_LEADER_JASPER_KITTY_ANY</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Row Tag="LOC_DIPLO_ACCEPT_DECLARE_FRIEND_FROM_AI_LEADER_JASPER_KITTY_ANY" Language="en_US" Text="Meow, thank you. I think this will benefit each of us."/&gt;</v>
+      </c>
+      <c r="L37" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Row Tag="LOC_DIPLO_ACCEPT_DECLARE_FRIEND_FROM_AI_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text="谢谢喵。这将使我们双方都受益喵。"/&gt;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="33">
+      <c r="A38" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>LOC_DIPLO_REJECT_DECLARE_FRIEND_FROM_AI_LEADER_JASPER_KITTY_ANY</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Row Tag="LOC_DIPLO_REJECT_DECLARE_FRIEND_FROM_AI_LEADER_JASPER_KITTY_ANY" Language="en_US" Text="Meow, I must say, I'm a bit disappointed."/&gt;</v>
+      </c>
+      <c r="L38" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Row Tag="LOC_DIPLO_REJECT_DECLARE_FRIEND_FROM_AI_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text="我必须说，我有点失望喵。"/&gt;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="96" customHeight="1">
+      <c r="A39" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>LOC_DIPLO_MAKE_ALLIANCE_FROM_AI_LEADER_JASPER_KITTY_ANY</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="10" t="str">
+        <f>CLEAN(_xlfn.CONCAT($G$2,$C39,$H$2,E$2,$I$2,E39,$J$2))</f>
+        <v>&lt;Row Tag="LOC_DIPLO_MAKE_ALLIANCE_FROM_AI_LEADER_JASPER_KITTY_ANY" Language="en_US" Text="Meow, would you like to form an alliance?"/&gt;</v>
+      </c>
+      <c r="L39" s="10" t="str">
+        <f>CLEAN(_xlfn.CONCAT($G$2,$C39,$H$2,F$2,$I$2,F39,$J$2))</f>
+        <v>&lt;Row Tag="LOC_DIPLO_MAKE_ALLIANCE_FROM_AI_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text="您想结为盟友吗喵？"/&gt;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="33">
+      <c r="A40" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>LOC_DIPLO_GREETING_LEADER_JASPER_KITTY_ANY</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Row Tag="LOC_DIPLO_GREETING_LEADER_JASPER_KITTY_ANY" Language="en_US" Text="Meow, what do you wish of me?"/&gt;</v>
+      </c>
+      <c r="L40" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Row Tag="LOC_DIPLO_GREETING_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text="您希望我做什么喵？"/&gt;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="33">
+      <c r="A41" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>LOC_DIPLO_MAKE_PEACE_AI_ACCEPT_DEAL_LEADER_JASPER_KITTY_ANY</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Row Tag="LOC_DIPLO_MAKE_PEACE_AI_ACCEPT_DEAL_LEADER_JASPER_KITTY_ANY" Language="en_US" Text="Meow, I accept your terms for peace."/&gt;</v>
+      </c>
+      <c r="L41" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Row Tag="LOC_DIPLO_MAKE_PEACE_AI_ACCEPT_DEAL_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text="我接受您的和平条款喵。"/&gt;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="33">
+      <c r="A42" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>LOC_DIPLO_MAKE_PEACE_AI_REFUSE_DEAL_LEADER_JASPER_KITTY_ANY</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Row Tag="LOC_DIPLO_MAKE_PEACE_AI_REFUSE_DEAL_LEADER_JASPER_KITTY_ANY" Language="en_US" Text="Meow, there can be no peace between us!"/&gt;</v>
+      </c>
+      <c r="L42" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Row Tag="LOC_DIPLO_MAKE_PEACE_AI_REFUSE_DEAL_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text="我们之间没有和平喵！"/&gt;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="33">
+      <c r="A43" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>LOC_DIPLO_MAKE_PEACE_FROM_AI_LEADER_JASPER_KITTY_ANY</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Row Tag="LOC_DIPLO_MAKE_PEACE_FROM_AI_LEADER_JASPER_KITTY_ANY" Language="en_US" Text="Meow, peace, mmkay?"/&gt;</v>
+      </c>
+      <c r="L43" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Row Tag="LOC_DIPLO_MAKE_PEACE_FROM_AI_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text="和平，好喵？"/&gt;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="33">
+      <c r="A44" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>LOC_DIPLO_ACCEPT_OPEN_BORDERS_FROM_HUMAN_LEADER_JASPER_KITTY_ANY</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Row Tag="LOC_DIPLO_ACCEPT_OPEN_BORDERS_FROM_HUMAN_LEADER_JASPER_KITTY_ANY" Language="en_US" Text="Meow, we are happy to open up our borders to your units."/&gt;</v>
+      </c>
+      <c r="L44" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Row Tag="LOC_DIPLO_ACCEPT_OPEN_BORDERS_FROM_HUMAN_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text="我们很高兴为您的军队打开边境喵。"/&gt;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="33">
+      <c r="A45" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>LOC_DIPLO_REJECT_OPEN_BORDERS_FROM_HUMAN_LEADER_JASPER_KITTY_ANY</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Row Tag="LOC_DIPLO_REJECT_OPEN_BORDERS_FROM_HUMAN_LEADER_JASPER_KITTY_ANY" Language="en_US" Text="Meow, we are not interested at this time."/&gt;</v>
+      </c>
+      <c r="L45" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Row Tag="LOC_DIPLO_REJECT_OPEN_BORDERS_FROM_HUMAN_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text="我们目前不感兴趣喵。"/&gt;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="33">
+      <c r="A46" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>LOC_DIPLO_OPEN_BORDERS_FROM_AI_LEADER_JASPER_KITTY_ANY</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Row Tag="LOC_DIPLO_OPEN_BORDERS_FROM_AI_LEADER_JASPER_KITTY_ANY" Language="en_US" Text="Meow, will you allow our units to cross through your territory?"/&gt;</v>
+      </c>
+      <c r="L46" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Row Tag="LOC_DIPLO_OPEN_BORDERS_FROM_AI_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text="您允许我们军队穿越您的领土喵？"/&gt;</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="D7:D15"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L46"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="40.625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="71.25" customWidth="1"/>
+    <col min="4" max="4" width="27.125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="44" customWidth="1"/>
+    <col min="6" max="6" width="56.375" customWidth="1"/>
+    <col min="7" max="7" width="15.625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="4.375" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="81.875" customWidth="1"/>
+    <col min="12" max="12" width="92.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="21.6" customHeight="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="21.6" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="15"/>
+    </row>
+    <row r="3" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A3" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="9" t="str">
+        <f t="shared" ref="C3:C11" si="0">_xlfn.CONCAT(A3,$D$2,B3)</f>
+        <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_1</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="9" t="str">
+        <f>CLEAN(_xlfn.CONCAT($G$2,$C3,$H$2,E$2,$I$2,E3,$J$2))</f>
+        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_1" Language="en_US" Text="The felines have a rich history, but are too lazy to write about it."/&gt;</v>
+      </c>
+      <c r="L3" s="9" t="str">
+        <f t="shared" ref="K3:L11" si="1">CLEAN(_xlfn.CONCAT($G$2,$C3,$H$2,F$2,$I$2,F3,$J$2))</f>
+        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_1" Language="zh_Hans_CN" Text="猫猫们有源远流长的历史，但它们懒得写。"/&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_2</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_2" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_2" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A5" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_3</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_3" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L5" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_3" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A6" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_4</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_4" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L6" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_4" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A7" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_5</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_5" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L7" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_5" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A8" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_6</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_6" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L8" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_6" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A9" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_7</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_7" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L9" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_7" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A10" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_8</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_8" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L10" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_8" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A11" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_9</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_9" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L11" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_9" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A12" s="9" t="s">
+        <v>141</v>
+      </c>
       <c r="B12" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY_CHAPTER_HISTORY_PARA_7</v>
-      </c>
-      <c r="D12" s="5"/>
+        <v>144</v>
+      </c>
+      <c r="C12" s="9" t="str">
+        <f t="shared" ref="C12:C20" si="2">_xlfn.CONCAT(A12,$D$2,B12)</f>
+        <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_10</v>
+      </c>
+      <c r="D12" s="19"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;Row Tag="LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY_CHAPTER_HISTORY_PARA_7" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L12" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;Row Tag="LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY_CHAPTER_HISTORY_PARA_7" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="13" ht="36.75" customHeight="1" spans="1:12">
-      <c r="A13" s="13" t="s">
-        <v>49</v>
+      <c r="K12" s="9" t="str">
+        <f t="shared" ref="K12:K20" si="3">CLEAN(_xlfn.CONCAT($G$2,$C12,$H$2,E$2,$I$2,E12,$J$2))</f>
+        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_10" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L12" s="9" t="str">
+        <f t="shared" ref="L12:L20" si="4">CLEAN(_xlfn.CONCAT($G$2,$C12,$H$2,F$2,$I$2,F12,$J$2))</f>
+        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_10" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A13" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY_CHAPTER_HISTORY_PARA_8</v>
-      </c>
-      <c r="D13" s="6"/>
+        <v>145</v>
+      </c>
+      <c r="C13" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_11</v>
+      </c>
+      <c r="D13" s="19"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;Row Tag="LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY_CHAPTER_HISTORY_PARA_8" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L13" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;Row Tag="LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY_CHAPTER_HISTORY_PARA_8" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="14" ht="36.75" customHeight="1" spans="1:12">
-      <c r="A14" s="11" t="s">
-        <v>49</v>
+      <c r="K13" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_11" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L13" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_11" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A14" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY_CHAPTER_HISTORY_PARA_9</v>
-      </c>
-      <c r="D14" s="5"/>
+        <v>146</v>
+      </c>
+      <c r="C14" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_12</v>
+      </c>
+      <c r="D14" s="19"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;Row Tag="LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY_CHAPTER_HISTORY_PARA_9" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L14" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;Row Tag="LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY_CHAPTER_HISTORY_PARA_9" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="15" ht="30" spans="1:12">
-      <c r="A15" s="13" t="s">
-        <v>70</v>
+      <c r="K14" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_12" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L14" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_12" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A15" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="13" t="str">
-        <f t="shared" ref="C15:C23" si="4">_xlfn.CONCAT(A15,$D$2,B15)</f>
-        <v>LOC_LEADER_JASPER_KITTY_QUOTE</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>74</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="C15" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_13</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="13" t="str">
-        <f t="shared" ref="K15:L21" si="5">CLEAN(_xlfn.CONCAT($G$2,$C15,$H$2,E$2,$I$2,E15,$J$2))</f>
-        <v>&lt;Row Tag="LOC_LEADER_JASPER_KITTY_QUOTE" Language="en_US" Text="It makes you so happy when you can be with the people you like."/&gt;</v>
-      </c>
-      <c r="L15" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;Row Tag="LOC_LEADER_JASPER_KITTY_QUOTE" Language="zh_Hans_CN" Text="和喜欢的人待在一起，就会很开心。"/&gt;</v>
-      </c>
-    </row>
-    <row r="16" ht="94.5" customHeight="1" spans="1:12">
-      <c r="A16" s="11" t="s">
-        <v>75</v>
+      <c r="K15" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_13" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L15" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_13" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A16" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>LOC_DIPLO_FIRST_MEET_LEADER_JASPER_KITTY_ANY</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>79</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="C16" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_14</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;Row Tag="LOC_DIPLO_FIRST_MEET_LEADER_JASPER_KITTY_ANY" Language="en_US" Text="Oh, my codename is Mint. What's yours? Mrow! I am the mighty Jasper Kitty. Pet me."/&gt;</v>
-      </c>
-      <c r="L16" s="11" t="str">
-        <f>CLEAN(_xlfn.CONCAT($G$2,$C16,$H$2,F$2,$I$2,F16,$J$2))</f>
-        <v>&lt;Row Tag="LOC_DIPLO_FIRST_MEET_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text="那个，我的代号是薄绿，你呢？喵呜！我就是强而有力的猫咪贾斯伯。快宠我。"/&gt;</v>
-      </c>
-    </row>
-    <row r="17" ht="30" spans="1:12">
-      <c r="A17" s="13" t="s">
-        <v>80</v>
+      <c r="K16" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_14" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L16" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_14" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A17" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>LOC_DIPLO_DECLARE_WAR_FROM_HUMAN_LEADER_JASPER_KITTY_ANY</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>83</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="C17" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_15</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;Row Tag="LOC_DIPLO_DECLARE_WAR_FROM_HUMAN_LEADER_JASPER_KITTY_ANY" Language="en_US" Text="Please don't get in our way!"/&gt;</v>
-      </c>
-      <c r="L17" s="13" t="str">
-        <f>CLEAN(_xlfn.CONCAT($G$2,$C17,$H$2,F$2,$I$2,F17,$J$2))</f>
-        <v>&lt;Row Tag="LOC_DIPLO_DECLARE_WAR_FROM_HUMAN_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text="请不要妨碍我们！"/&gt;</v>
-      </c>
-    </row>
-    <row r="18" ht="30" spans="1:12">
-      <c r="A18" s="11" t="s">
-        <v>84</v>
+      <c r="K17" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_15" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L17" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_15" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A18" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>LOC_DIPLO_DECLARE_WAR_FROM_AI_LEADER_JASPER_KITTY_ANY</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>87</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C18" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_16</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="11" t="str">
+      <c r="K18" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_16" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L18" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_16" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A19" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_17</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_17" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L19" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_17" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A20" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_18</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_18" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L20" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_18" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A21" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" s="10" t="str">
+        <f t="shared" ref="C21:C22" si="5">_xlfn.CONCAT(A21,$D$2,B21)</f>
+        <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_19</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="10" t="str">
+        <f t="shared" ref="K21:K42" si="6">CLEAN(_xlfn.CONCAT($G$2,$C21,$H$2,E$2,$I$2,E21,$J$2))</f>
+        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_19" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L21" s="10" t="str">
+        <f t="shared" ref="L21:L42" si="7">CLEAN(_xlfn.CONCAT($G$2,$C21,$H$2,F$2,$I$2,F21,$J$2))</f>
+        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_19" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A22" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;Row Tag="LOC_DIPLO_DECLARE_WAR_FROM_AI_LEADER_JASPER_KITTY_ANY" Language="en_US" Text="Would you like to see some of my magic?"/&gt;</v>
-      </c>
-      <c r="L18" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;Row Tag="LOC_DIPLO_DECLARE_WAR_FROM_AI_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text="要不要看我变魔术？"/&gt;</v>
-      </c>
-    </row>
-    <row r="19" ht="45" spans="1:12">
-      <c r="A19" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>LOC_DIPLO_KUDO_EXIT_LEADER_JASPER_KITTY_ANY</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;Row Tag="LOC_DIPLO_KUDO_EXIT_LEADER_JASPER_KITTY_ANY" Language="en_US" Text="Heheh! If I get results this time, I can reapply to the Institution to resume my studies."/&gt;</v>
-      </c>
-      <c r="L19" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;Row Tag="LOC_DIPLO_KUDO_EXIT_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text="嘿嘿，如果这次能出结果，我就可以申请留校继续读书啦。"/&gt;</v>
-      </c>
-    </row>
-    <row r="20" ht="45" spans="1:12">
-      <c r="A20" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>LOC_DIPLO_WARNING_EXIT_LEADER_JASPER_KITTY_ANY</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="13" t="str">
-        <f>CLEAN(_xlfn.CONCAT($G$2,$C20,$H$2,E$2,$I$2,E20,$J$2))</f>
-        <v>&lt;Row Tag="LOC_DIPLO_WARNING_EXIT_LEADER_JASPER_KITTY_ANY" Language="en_US" Text="Ah, please don't go touching my book. It might bite your hand if you do."/&gt;</v>
-      </c>
-      <c r="L20" s="13" t="str">
-        <f>CLEAN(_xlfn.CONCAT($G$2,$C20,$H$2,F$2,$I$2,F20,$J$2))</f>
-        <v>&lt;Row Tag="LOC_DIPLO_WARNING_EXIT_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text="啊，不可以，不能随便乱碰我的书，它会咬你的手。"/&gt;</v>
-      </c>
-    </row>
-    <row r="21" ht="30" spans="1:12">
-      <c r="A21" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>LOC_DIPLO_DEFEAT_FROM_AI_LEADER_JASPER_KITTY_ANY</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;Row Tag="LOC_DIPLO_DEFEAT_FROM_AI_LEADER_JASPER_KITTY_ANY" Language="en_US" Text="We can't, it's too dangerous..."/&gt;</v>
-      </c>
-      <c r="L21" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;Row Tag="LOC_DIPLO_DEFEAT_FROM_AI_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text="不行，危险......"/&gt;</v>
-      </c>
-    </row>
-    <row r="22" ht="30" spans="1:12">
-      <c r="A22" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>LOC_DIPLO_ACCEPT_MAKE_DEAL_FROM_AI_LEADER_JASPER_KITTY_ANY</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>101</v>
-      </c>
+        <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_20</v>
+      </c>
+      <c r="D22" s="19"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="13" t="str">
-        <f>CLEAN(_xlfn.CONCAT($G$2,$C22,$H$2,E$2,$I$2,E22,$J$2))</f>
-        <v>&lt;Row Tag="LOC_DIPLO_ACCEPT_MAKE_DEAL_FROM_AI_LEADER_JASPER_KITTY_ANY" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L22" s="13" t="str">
-        <f>CLEAN(_xlfn.CONCAT($G$2,$C22,$H$2,F$2,$I$2,F22,$J$2))</f>
-        <v>&lt;Row Tag="LOC_DIPLO_ACCEPT_MAKE_DEAL_FROM_AI_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="23" ht="30" spans="1:12">
-      <c r="A23" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>LOC_DIPLO_REJECT_MAKE_DEAL_FROM_AI_LEADER_JASPER_KITTY_ANY</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_20" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L22" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_20" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A23" s="9"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
-      <c r="K23" s="11" t="str">
-        <f>CLEAN(_xlfn.CONCAT($G$2,$C23,$H$2,E$2,$I$2,E23,$J$2))</f>
-        <v>&lt;Row Tag="LOC_DIPLO_REJECT_MAKE_DEAL_FROM_AI_LEADER_JASPER_KITTY_ANY" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L23" s="11" t="str">
-        <f>CLEAN(_xlfn.CONCAT($G$2,$C23,$H$2,F$2,$I$2,F23,$J$2))</f>
-        <v>&lt;Row Tag="LOC_DIPLO_REJECT_MAKE_DEAL_FROM_AI_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="24" ht="30" spans="1:12">
-      <c r="A24" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>LOC_DIPLO_DENOUNCE_FROM_HUMAN_LEADER_JASPER_KITTY_ANY</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;Row Tag="LOC_DIPLO_DENOUNCE_FROM_HUMAN_LEADER_JASPER_KITTY_ANY" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L24" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;Row Tag="LOC_DIPLO_DENOUNCE_FROM_HUMAN_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="25" ht="30" spans="1:12">
-      <c r="A25" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>LOC_DIPLO_DENOUNCE_FROM_AI_LEADER_JASPER_KITTY_ANY</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;Row Tag="LOC_DIPLO_DENOUNCE_FROM_AI_LEADER_JASPER_KITTY_ANY" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L25" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;Row Tag="LOC_DIPLO_DENOUNCE_FROM_AI_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="26" ht="71.25" customHeight="1" spans="1:12">
-      <c r="A26" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>LOC_DIPLO_WARNING_TOO_MANY_TROOPS_NEAR_ME_LEADER_JASPER_KITTY_ANY</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>109</v>
-      </c>
+      <c r="K23" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_1" Language="en_US" Text="I'm not going to write the historical context about the kittens..."/&gt;</v>
+      </c>
+      <c r="L23" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_1" Language="zh_Hans_CN" Text="哈基米的历史信息我就先摆掉了……"/&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A24" s="9"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" s="19"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_2" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L24" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_2" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A25" s="9"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_3" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L25" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_3" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A26" s="9"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" s="19"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
-      <c r="K26" s="13" t="str">
-        <f>CLEAN(_xlfn.CONCAT($G$2,$C26,$H$2,E$2,$I$2,E26,$J$2))</f>
-        <v>&lt;Row Tag="LOC_DIPLO_WARNING_TOO_MANY_TROOPS_NEAR_ME_LEADER_JASPER_KITTY_ANY" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L26" s="13" t="str">
-        <f>CLEAN(_xlfn.CONCAT($G$2,$C26,$H$2,F$2,$I$2,F26,$J$2))</f>
-        <v>&lt;Row Tag="LOC_DIPLO_WARNING_TOO_MANY_TROOPS_NEAR_ME_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="27" ht="127.5" customHeight="1" spans="1:12">
-      <c r="A27" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>LOC_DIPLO_FIRST_MEET_VISIT_RECIPIENT_LEADER_JASPER_KITTY_ANY</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>113</v>
-      </c>
+      <c r="K26" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_4" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L26" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_4" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A27" s="9"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
-      <c r="K27" s="11" t="str">
-        <f>CLEAN(_xlfn.CONCAT($G$2,$C27,$H$2,E$2,$I$2,E27,$J$2))</f>
-        <v>&lt;Row Tag="LOC_DIPLO_FIRST_MEET_VISIT_RECIPIENT_LEADER_JASPER_KITTY_ANY" Language="en_US" Text="I haz a box. Wanna see?"/&gt;</v>
-      </c>
-      <c r="L27" s="11" t="str">
-        <f>CLEAN(_xlfn.CONCAT($G$2,$C27,$H$2,F$2,$I$2,F27,$J$2))</f>
-        <v>&lt;Row Tag="LOC_DIPLO_FIRST_MEET_VISIT_RECIPIENT_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text="我有个猫窝。你要来看吗？"/&gt;</v>
-      </c>
-    </row>
-    <row r="28" ht="46.5" customHeight="1" spans="1:12">
-      <c r="A28" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>LOC_DIPLO_FIRST_MEET_NEAR_INITIATOR_POSITIVE_LEADER_JASPER_KITTY_ANY</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>117</v>
-      </c>
+      <c r="K27" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_5" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L27" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_5" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A28" s="9"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
-      <c r="K28" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;Row Tag="LOC_DIPLO_FIRST_MEET_NEAR_INITIATOR_POSITIVE_LEADER_JASPER_KITTY_ANY" Language="en_US" Text="Let me rub my face on all of your stuff so that it will be mine."/&gt;</v>
-      </c>
-      <c r="L28" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;Row Tag="LOC_DIPLO_FIRST_MEET_NEAR_INITIATOR_POSITIVE_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text="我要在你的东西上都蹭蹭脸，这样它们就是我的啦。"/&gt;</v>
-      </c>
-    </row>
-    <row r="29" ht="45" spans="1:12">
-      <c r="A29" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>LOC_DIPLO_FIRST_MEET_NO_MANS_INFO_EXCHANGE_LEADER_JASPER_KITTY_ANY</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>119</v>
-      </c>
+      <c r="K28" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_6" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L28" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_6" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A29" s="9"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D29" s="19"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
-      <c r="K29" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;Row Tag="LOC_DIPLO_FIRST_MEET_NO_MANS_INFO_EXCHANGE_LEADER_JASPER_KITTY_ANY" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L29" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;Row Tag="LOC_DIPLO_FIRST_MEET_NO_MANS_INFO_EXCHANGE_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="30" ht="45" spans="1:12">
-      <c r="A30" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>LOC_DIPLO_ACCEPT_DELEGATION_FROM_HUMAN_LEADER_JASPER_KITTY_ANY</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>121</v>
-      </c>
+      <c r="K29" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_7" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L29" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_7" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A30" s="9"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D30" s="19"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
-      <c r="K30" s="13" t="str">
-        <f t="shared" ref="K30:L32" si="6">CLEAN(_xlfn.CONCAT($G$2,$C30,$H$2,E$2,$I$2,E30,$J$2))</f>
-        <v>&lt;Row Tag="LOC_DIPLO_ACCEPT_DELEGATION_FROM_HUMAN_LEADER_JASPER_KITTY_ANY" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L30" s="13" t="str">
+      <c r="K30" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;Row Tag="LOC_DIPLO_ACCEPT_DELEGATION_FROM_HUMAN_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="31" ht="45" spans="1:12">
-      <c r="A31" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>LOC_DIPLO_REJECT_DELEGATION_FROM_HUMAN_LEADER_JASPER_KITTY_ANY</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>123</v>
-      </c>
+        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_8" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L30" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_8" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A31" s="9"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D31" s="19"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
-      <c r="K31" s="11" t="str">
+      <c r="K31" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;Row Tag="LOC_DIPLO_REJECT_DELEGATION_FROM_HUMAN_LEADER_JASPER_KITTY_ANY" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L31" s="11" t="str">
+        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_9" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L31" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_9" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A32" s="9"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D32" s="21"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;Row Tag="LOC_DIPLO_REJECT_DELEGATION_FROM_HUMAN_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="32" ht="30" spans="1:12">
-      <c r="A32" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>LOC_DIPLO_DELEGATION_FROM_AI_LEADER_JASPER_KITTY_ANY</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;Row Tag="LOC_DIPLO_DELEGATION_FROM_AI_LEADER_JASPER_KITTY_ANY" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L32" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;Row Tag="LOC_DIPLO_DELEGATION_FROM_AI_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="33" ht="45" spans="1:12">
-      <c r="A33" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>LOC_DIPLO_ACCEPT_DECLARE_FRIEND_FROM_HUMAN_LEADER_JASPER_KITTY_ANY</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
+        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_10" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L32" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_10" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A33" s="9"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>179</v>
+      </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
-      <c r="K33" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;Row Tag="LOC_DIPLO_ACCEPT_DECLARE_FRIEND_FROM_HUMAN_LEADER_JASPER_KITTY_ANY" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L33" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;Row Tag="LOC_DIPLO_ACCEPT_DECLARE_FRIEND_FROM_HUMAN_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="34" ht="45" spans="1:12">
-      <c r="A34" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>LOC_DIPLO_REJECT_DECLARE_FRIEND_FROM_HUMAN_LEADER_JASPER_KITTY_ANY</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
+      <c r="K33" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_1" Language="en_US" Text="I'm not going to write the historical context about the litter box…"/&gt;</v>
+      </c>
+      <c r="L33" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_1" Language="zh_Hans_CN" Text="猫砂盆的历史信息我就先摆掉了……"/&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A34" s="9"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D34" s="19"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
-      <c r="K34" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;Row Tag="LOC_DIPLO_REJECT_DECLARE_FRIEND_FROM_HUMAN_LEADER_JASPER_KITTY_ANY" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L34" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;Row Tag="LOC_DIPLO_REJECT_DECLARE_FRIEND_FROM_HUMAN_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="35" ht="30" spans="1:12">
-      <c r="A35" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>LOC_DIPLO_DECLARE_FRIEND_FROM_AI_LEADER_JASPER_KITTY_ANY</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>131</v>
-      </c>
+      <c r="K34" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_2" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L34" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_2" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A35" s="9"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D35" s="19"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
-      <c r="K35" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;Row Tag="LOC_DIPLO_DECLARE_FRIEND_FROM_AI_LEADER_JASPER_KITTY_ANY" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L35" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;Row Tag="LOC_DIPLO_DECLARE_FRIEND_FROM_AI_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="36" ht="45" spans="1:12">
-      <c r="A36" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>LOC_DIPLO_ACCEPT_DECLARE_FRIEND_FROM_AI_LEADER_JASPER_KITTY_ANY</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>133</v>
-      </c>
+      <c r="K35" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_3" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L35" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_3" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A36" s="9"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D36" s="19"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
-      <c r="K36" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;Row Tag="LOC_DIPLO_ACCEPT_DECLARE_FRIEND_FROM_AI_LEADER_JASPER_KITTY_ANY" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L36" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;Row Tag="LOC_DIPLO_ACCEPT_DECLARE_FRIEND_FROM_AI_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="37" ht="45" spans="1:12">
-      <c r="A37" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>LOC_DIPLO_REJECT_DECLARE_FRIEND_FROM_AI_LEADER_JASPER_KITTY_ANY</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>135</v>
-      </c>
+      <c r="K36" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_4" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L36" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_4" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A37" s="9"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D37" s="19"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
-      <c r="K37" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;Row Tag="LOC_DIPLO_REJECT_DECLARE_FRIEND_FROM_AI_LEADER_JASPER_KITTY_ANY" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L37" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;Row Tag="LOC_DIPLO_REJECT_DECLARE_FRIEND_FROM_AI_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="38" ht="96" customHeight="1" spans="1:12">
-      <c r="A38" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>LOC_DIPLO_MAKE_ALLIANCE_FROM_AI_LEADER_JASPER_KITTY_ANY</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>137</v>
-      </c>
+      <c r="K37" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_5" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L37" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_5" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A38" s="9"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D38" s="19"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
-      <c r="K38" s="13" t="str">
-        <f>CLEAN(_xlfn.CONCAT($G$2,$C38,$H$2,E$2,$I$2,E38,$J$2))</f>
-        <v>&lt;Row Tag="LOC_DIPLO_MAKE_ALLIANCE_FROM_AI_LEADER_JASPER_KITTY_ANY" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L38" s="13" t="str">
-        <f>CLEAN(_xlfn.CONCAT($G$2,$C38,$H$2,F$2,$I$2,F38,$J$2))</f>
-        <v>&lt;Row Tag="LOC_DIPLO_MAKE_ALLIANCE_FROM_AI_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="39" ht="36.75" customHeight="1" spans="1:12">
-      <c r="A39" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C39" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY _SUBTITLE</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="13" t="str">
-        <f>CLEAN(_xlfn.CONCAT($G$2,$C39,$H$2,E$2,$I$2,E39,$J$2))</f>
-        <v>&lt;Row Tag="LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY _SUBTITLE" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L39" s="13" t="str">
-        <f>CLEAN(_xlfn.CONCAT($G$2,$C39,$H$2,F$2,$I$2,F39,$J$2))</f>
-        <v>&lt;Row Tag="LOC_PEDIA_LEADERS_PAGE_LEADER_JASPER_KITTY _SUBTITLE" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="40" ht="30" spans="1:12">
-      <c r="A40" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>LOC_DIPLO_GREETING_LEADER_JASPER_KITTY_ANY</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>141</v>
-      </c>
+      <c r="K38" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_6" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L38" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_6" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A39" s="9"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D39" s="19"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_7" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L39" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_7" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A40" s="9"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D40" s="19"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
-      <c r="K40" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;Row Tag="LOC_DIPLO_GREETING_LEADER_JASPER_KITTY_ANY" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L40" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;Row Tag="LOC_DIPLO_GREETING_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="41" ht="30" spans="1:12">
-      <c r="A41" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C41" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>LOC_DIPLO_MAKE_PEACE_AI_ACCEPT_DEAL_LEADER_JASPER_KITTY_ANY</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>143</v>
-      </c>
+      <c r="K40" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_8" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L40" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_8" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A41" s="9"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D41" s="19"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
-      <c r="K41" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;Row Tag="LOC_DIPLO_MAKE_PEACE_AI_ACCEPT_DEAL_LEADER_JASPER_KITTY_ANY" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L41" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;Row Tag="LOC_DIPLO_MAKE_PEACE_AI_ACCEPT_DEAL_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="42" ht="30" spans="1:12">
-      <c r="A42" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C42" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>LOC_DIPLO_MAKE_PEACE_AI_REFUSE_DEAL_LEADER_JASPER_KITTY_ANY</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;Row Tag="LOC_DIPLO_MAKE_PEACE_AI_REFUSE_DEAL_LEADER_JASPER_KITTY_ANY" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L42" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;Row Tag="LOC_DIPLO_MAKE_PEACE_AI_REFUSE_DEAL_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="43" ht="30" spans="1:12">
-      <c r="A43" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C43" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>LOC_DIPLO_MAKE_PEACE_FROM_AI_LEADER_JASPER_KITTY_ANY</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;Row Tag="LOC_DIPLO_MAKE_PEACE_FROM_AI_LEADER_JASPER_KITTY_ANY" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L43" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;Row Tag="LOC_DIPLO_MAKE_PEACE_FROM_AI_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="44" ht="45" spans="1:12">
-      <c r="A44" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>LOC_DIPLO_ACCEPT_OPEN_BORDERS_FROM_HUMAN_LEADER_JASPER_KITTY_ANY</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;Row Tag="LOC_DIPLO_ACCEPT_OPEN_BORDERS_FROM_HUMAN_LEADER_JASPER_KITTY_ANY" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L44" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;Row Tag="LOC_DIPLO_ACCEPT_OPEN_BORDERS_FROM_HUMAN_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="45" ht="45" spans="1:12">
-      <c r="A45" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C45" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>LOC_DIPLO_REJECT_OPEN_BORDERS_FROM_HUMAN_LEADER_JASPER_KITTY_ANY</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;Row Tag="LOC_DIPLO_REJECT_OPEN_BORDERS_FROM_HUMAN_LEADER_JASPER_KITTY_ANY" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L45" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;Row Tag="LOC_DIPLO_REJECT_OPEN_BORDERS_FROM_HUMAN_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="46" ht="30" spans="1:12">
-      <c r="A46" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C46" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>LOC_DIPLO_OPEN_BORDERS_FROM_AI_LEADER_JASPER_KITTY_ANY</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;Row Tag="LOC_DIPLO_OPEN_BORDERS_FROM_AI_LEADER_JASPER_KITTY_ANY" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L46" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;Row Tag="LOC_DIPLO_OPEN_BORDERS_FROM_AI_LEADER_JASPER_KITTY_ANY" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C1:L1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="D6:D14"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L46"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="C29" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
-  <cols>
-    <col min="1" max="1" width="40.6296296296296" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="71.25" customWidth="1"/>
-    <col min="4" max="4" width="27.1296296296296" style="9" customWidth="1"/>
-    <col min="5" max="5" width="44" customWidth="1"/>
-    <col min="6" max="6" width="56.3796296296296" customWidth="1"/>
-    <col min="7" max="7" width="15.6296296296296" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="8.62962962962963" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="4.37962962962963" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="81.8796296296296" customWidth="1"/>
-    <col min="12" max="12" width="92.3796296296296" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="21.6" customHeight="1" spans="1:12">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="21.6" customHeight="1" spans="1:12">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" ht="36.75" customHeight="1" spans="1:12">
-      <c r="A3" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="11" t="str">
-        <f t="shared" ref="C3:C11" si="0">_xlfn.CONCAT(A3,$D$2,B3)</f>
-        <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_1</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="11" t="str">
-        <f t="shared" ref="K3:L11" si="1">CLEAN(_xlfn.CONCAT($G$2,$C3,$H$2,E$2,$I$2,E3,$J$2))</f>
-        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_1" Language="en_US" Text="The felines have a rich history, but are too lazy to write about it."/&gt;</v>
-      </c>
-      <c r="L3" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_1" Language="zh_Hans_CN" Text="猫猫们有源远流长的历史，但它们懒得写。"/&gt;</v>
-      </c>
-    </row>
-    <row r="4" ht="36.75" customHeight="1" spans="1:12">
-      <c r="A4" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_2</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_2" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L4" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_2" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="5" ht="36.75" customHeight="1" spans="1:12">
-      <c r="A5" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_3</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_3" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L5" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_3" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="6" ht="36.75" customHeight="1" spans="1:12">
-      <c r="A6" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_4</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_4" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L6" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_4" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="7" ht="36.75" customHeight="1" spans="1:12">
-      <c r="A7" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_5</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_5" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L7" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_5" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="8" ht="36.75" customHeight="1" spans="1:12">
-      <c r="A8" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_6</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_6" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L8" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_6" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="9" ht="36.75" customHeight="1" spans="1:12">
-      <c r="A9" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_7</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_7" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L9" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_7" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="10" ht="36.75" customHeight="1" spans="1:12">
-      <c r="A10" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_8</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_8" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L10" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_8" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="11" ht="36.75" customHeight="1" spans="1:12">
-      <c r="A11" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_9</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_9" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L11" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_9" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="12" ht="36.75" customHeight="1" spans="1:12">
-      <c r="A12" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C12" s="11" t="str">
-        <f t="shared" ref="C12:C20" si="2">_xlfn.CONCAT(A12,$D$2,B12)</f>
-        <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_10</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="11" t="str">
-        <f t="shared" ref="K12:K20" si="3">CLEAN(_xlfn.CONCAT($G$2,$C12,$H$2,E$2,$I$2,E12,$J$2))</f>
-        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_10" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L12" s="11" t="str">
-        <f t="shared" ref="L12:L20" si="4">CLEAN(_xlfn.CONCAT($G$2,$C12,$H$2,F$2,$I$2,F12,$J$2))</f>
-        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_10" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="13" ht="36.75" customHeight="1" spans="1:12">
-      <c r="A13" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C13" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_11</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_11" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L13" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_11" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="14" ht="36.75" customHeight="1" spans="1:12">
-      <c r="A14" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C14" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_12</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_12" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L14" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_12" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="15" ht="36.75" customHeight="1" spans="1:12">
-      <c r="A15" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C15" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_13</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_13" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L15" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_13" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="16" ht="36.75" customHeight="1" spans="1:12">
-      <c r="A16" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C16" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_14</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_14" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L16" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_14" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="17" ht="36.75" customHeight="1" spans="1:12">
-      <c r="A17" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C17" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_15</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_15" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L17" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_15" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="18" ht="36.75" customHeight="1" spans="1:12">
-      <c r="A18" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C18" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_16</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_16" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L18" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_16" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="19" ht="36.75" customHeight="1" spans="1:12">
-      <c r="A19" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C19" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_17</v>
-      </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_17" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L19" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_17" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="20" ht="36.75" customHeight="1" spans="1:12">
-      <c r="A20" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C20" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_18</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_18" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L20" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_18" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="21" ht="36.75" customHeight="1" spans="1:12">
-      <c r="A21" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C21" s="13" t="str">
-        <f t="shared" ref="C21:C24" si="5">_xlfn.CONCAT(A21,$D$2,B21)</f>
-        <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_19</v>
-      </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="13" t="str">
-        <f t="shared" ref="K21:K46" si="6">CLEAN(_xlfn.CONCAT($G$2,$C21,$H$2,E$2,$I$2,E21,$J$2))</f>
-        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_19" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L21" s="13" t="str">
-        <f t="shared" ref="L21:L46" si="7">CLEAN(_xlfn.CONCAT($G$2,$C21,$H$2,F$2,$I$2,F21,$J$2))</f>
-        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_19" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="22" ht="36.75" customHeight="1" spans="1:12">
-      <c r="A22" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C22" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_20</v>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_20" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L22" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;Row Tag="LOC_PEDIA_CIVILIZATIONS_PAGE_CIVILIZATION_FELINE_CHAPTER_HISTORY_PARA_20" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="23" ht="36.75" customHeight="1" spans="1:12">
-      <c r="A23" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C23" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>LOC_CIVINFO_FELINE_LOCATION</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;Row Tag="LOC_CIVINFO_FELINE_LOCATION" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L23" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;Row Tag="LOC_CIVINFO_FELINE_LOCATION" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="24" ht="36.75" customHeight="1" spans="1:12">
-      <c r="A24" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C24" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>LOC_CIVINFO_FELINE_SIZE</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;Row Tag="LOC_CIVINFO_FELINE_SIZE" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L24" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;Row Tag="LOC_CIVINFO_FELINE_SIZE" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="25" ht="36.75" customHeight="1" spans="1:12">
-      <c r="A25" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C25" s="13" t="str">
-        <f t="shared" ref="C25:C26" si="8">_xlfn.CONCAT(A25,$D$2,B25)</f>
-        <v>LOC_CIVINFO_FELINE_POPULATION</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="13" t="str">
-        <f t="shared" ref="K25:K26" si="9">CLEAN(_xlfn.CONCAT($G$2,$C25,$H$2,E$2,$I$2,E25,$J$2))</f>
-        <v>&lt;Row Tag="LOC_CIVINFO_FELINE_POPULATION" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L25" s="13" t="str">
-        <f t="shared" ref="L25:L26" si="10">CLEAN(_xlfn.CONCAT($G$2,$C25,$H$2,F$2,$I$2,F25,$J$2))</f>
-        <v>&lt;Row Tag="LOC_CIVINFO_FELINE_POPULATION" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="26" ht="36.75" customHeight="1" spans="1:12">
-      <c r="A26" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C26" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v>LOC_CIVINFO_FELINE_CAPITAL</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v>&lt;Row Tag="LOC_CIVINFO_FELINE_CAPITAL" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L26" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v>&lt;Row Tag="LOC_CIVINFO_FELINE_CAPITAL" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="27" ht="36.75" customHeight="1" spans="1:12">
-      <c r="A27" s="11"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_1" Language="en_US" Text="I'm not going to write the historical context about the kittens..."/&gt;</v>
-      </c>
-      <c r="L27" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_1" Language="zh_Hans_CN" Text="哈基米的历史信息我就先摆掉了……"/&gt;</v>
-      </c>
-    </row>
-    <row r="28" ht="36.75" customHeight="1" spans="1:12">
-      <c r="A28" s="11"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_2" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L28" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_2" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="29" ht="36.75" customHeight="1" spans="1:12">
-      <c r="A29" s="11"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_3" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L29" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_3" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="30" ht="36.75" customHeight="1" spans="1:12">
-      <c r="A30" s="11"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_4" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L30" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_4" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="31" ht="36.75" customHeight="1" spans="1:12">
-      <c r="A31" s="11"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_5" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L31" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_5" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="32" ht="36.75" customHeight="1" spans="1:12">
-      <c r="A32" s="11"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_6" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L32" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_6" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="33" ht="36.75" customHeight="1" spans="1:12">
-      <c r="A33" s="11"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_7" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L33" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_7" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="34" ht="36.75" customHeight="1" spans="1:12">
-      <c r="A34" s="11"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_8" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L34" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_8" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="35" ht="36.75" customHeight="1" spans="1:12">
-      <c r="A35" s="11"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="D35" s="14"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_9" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L35" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_9" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="36" ht="36.75" customHeight="1" spans="1:12">
-      <c r="A36" s="11"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="D36" s="16"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_10" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L36" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;Row Tag="LOC_PEDIA_UNITS_PAGE_UNIT_FELINE_KITTEN_CHAPTER_HISTORY_PARA_10" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="37" ht="36.75" customHeight="1" spans="1:12">
-      <c r="A37" s="11"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_1" Language="en_US" Text="I'm not going to write the historical context about the litter box…"/&gt;</v>
-      </c>
-      <c r="L37" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_1" Language="zh_Hans_CN" Text="猫砂盆的历史信息我就先摆掉了……"/&gt;</v>
-      </c>
-    </row>
-    <row r="38" ht="36.75" customHeight="1" spans="1:12">
-      <c r="A38" s="11"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_2" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L38" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_2" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="39" ht="36.75" customHeight="1" spans="1:12">
-      <c r="A39" s="11"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="D39" s="14"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_3" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L39" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_3" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="40" ht="36.75" customHeight="1" spans="1:12">
-      <c r="A40" s="11"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="D40" s="14"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_4" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L40" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_4" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="41" ht="36.75" customHeight="1" spans="1:12">
-      <c r="A41" s="11"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_5" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L41" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_5" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="42" ht="36.75" customHeight="1" spans="1:12">
-      <c r="A42" s="11"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="D42" s="14"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_6" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L42" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_6" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="43" ht="36.75" customHeight="1" spans="1:12">
-      <c r="A43" s="11"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_7" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L43" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_7" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="44" ht="36.75" customHeight="1" spans="1:12">
-      <c r="A44" s="11"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="D44" s="14"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_8" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L44" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_8" Language="zh_Hans_CN" Text=""/&gt;</v>
-      </c>
-    </row>
-    <row r="45" ht="36.75" customHeight="1" spans="1:12">
-      <c r="A45" s="11"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D45" s="14"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="11" t="str">
+      <c r="K41" s="9" t="str">
         <f t="shared" si="6"/>
         <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_9" Language="en_US" Text=""/&gt;</v>
       </c>
-      <c r="L45" s="11" t="str">
+      <c r="L41" s="9" t="str">
         <f t="shared" si="7"/>
         <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_9" Language="zh_Hans_CN" Text=""/&gt;</v>
       </c>
     </row>
-    <row r="46" ht="36.75" customHeight="1" spans="1:12">
-      <c r="A46" s="11"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
+    <row r="42" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A42" s="9"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D42" s="22"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_10" Language="en_US" Text=""/&gt;</v>
+      </c>
+      <c r="L42" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_10" Language="zh_Hans_CN" Text=""/&gt;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A43" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" s="10" t="str">
+        <f>_xlfn.CONCAT(A43,$D$2,B43)</f>
+        <v>LOC_CIVINFO_FELINE_LOCATION</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="10" t="str">
+        <f t="shared" ref="K43:L46" si="8">CLEAN(_xlfn.CONCAT($G$2,$C43,$H$2,E$2,$I$2,E43,$J$2))</f>
+        <v>&lt;Row Tag="LOC_CIVINFO_FELINE_LOCATION" Language="en_US" Text="Worldwide"/&gt;</v>
+      </c>
+      <c r="L43" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>&lt;Row Tag="LOC_CIVINFO_FELINE_LOCATION" Language="zh_Hans_CN" Text="全世界"/&gt;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A44" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C44" s="9" t="str">
+        <f>_xlfn.CONCAT(A44,$D$2,B44)</f>
+        <v>LOC_CIVINFO_FELINE_SIZE</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>&lt;Row Tag="LOC_CIVINFO_FELINE_SIZE" Language="en_US" Text="Very large!"/&gt;</v>
+      </c>
+      <c r="L44" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>&lt;Row Tag="LOC_CIVINFO_FELINE_SIZE" Language="zh_Hans_CN" Text="超大！"/&gt;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A45" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C45" s="10" t="str">
+        <f t="shared" ref="C45:C46" si="9">_xlfn.CONCAT(A45,$D$2,B45)</f>
+        <v>LOC_CIVINFO_FELINE_POPULATION</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>&lt;Row Tag="LOC_CIVINFO_FELINE_POPULATION" Language="en_US" Text="Very high!"/&gt;</v>
+      </c>
+      <c r="L45" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>&lt;Row Tag="LOC_CIVINFO_FELINE_POPULATION" Language="zh_Hans_CN" Text="超多！"/&gt;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A46" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C46" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>LOC_CIVINFO_FELINE_CAPITAL</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>444</v>
+      </c>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
-      <c r="K46" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_10" Language="en_US" Text=""/&gt;</v>
-      </c>
-      <c r="L46" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;Row Tag="LOC_PEDIA_BUILDINGS_PAGE_BUILDING_LITTER_BOX_CHAPTER_HISTORY_PARA_10" Language="zh_Hans_CN" Text=""/&gt;</v>
+      <c r="K46" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>&lt;Row Tag="LOC_CIVINFO_FELINE_CAPITAL" Language="en_US" Text="{LOC_CITY_NAME_PAWTIMORE}"/&gt;</v>
+      </c>
+      <c r="L46" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>&lt;Row Tag="LOC_CIVINFO_FELINE_CAPITAL" Language="zh_Hans_CN" Text="{LOC_CITY_NAME_PAWTIMORE}"/&gt;</v>
       </c>
     </row>
   </sheetData>
@@ -5222,64 +4934,64 @@
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="D3:D22"/>
-    <mergeCell ref="D27:D36"/>
-    <mergeCell ref="D37:D46"/>
+    <mergeCell ref="D23:D32"/>
+    <mergeCell ref="D33:D42"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="34.25" customWidth="1"/>
     <col min="2" max="2" width="38.75" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="31.6296296296296" customWidth="1"/>
+    <col min="3" max="3" width="31.625" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="5" max="5" width="56.3796296296296" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6296296296296" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="56.375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.62962962962963" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="101.12962962963" customWidth="1"/>
+    <col min="8" max="8" width="8.625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="101.125" customWidth="1"/>
     <col min="10" max="10" width="140.5" customWidth="1"/>
-    <col min="11" max="11" width="81.8796296296296" customWidth="1"/>
+    <col min="11" max="11" width="81.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33" customHeight="1" spans="1:11">
+    <row r="1" spans="1:11" ht="33" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
-        <v>155</v>
+      <c r="C1" s="2" t="str">
+        <f>文明百科!D2</f>
+        <v>FELINE</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="79.5" customHeight="1" spans="1:11">
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="79.5" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>39</v>
@@ -5288,7 +5000,7 @@
         <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>42</v>
@@ -5299,19 +5011,19 @@
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="3" ht="27.95" customHeight="1" spans="1:11">
+      <c r="I2" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="27.95" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="B3" s="3" t="str">
         <f>_xlfn.CONCAT("LOC_CITY_NAME_",SUBSTITUTE((SUBSTITUTE((UPPER(A3))," ","_")),"-","_"))</f>
@@ -5322,13 +5034,13 @@
         <v>Pawtimore</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>3</v>
@@ -5347,9 +5059,9 @@
         <v>&lt;InsertOrIgnore Tag="LOC_CITY_NAME_PAWTIMORE" Language="zh_Hans_CN" Text="扒尔的摩"/&gt;</v>
       </c>
     </row>
-    <row r="4" ht="27.95" customHeight="1" spans="1:11">
+    <row r="4" spans="1:11" ht="27.95" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B32" si="4">_xlfn.CONCAT("LOC_CITY_NAME_",SUBSTITUTE((SUBSTITUTE((UPPER(A4))," ","_")),"-","_"))</f>
@@ -5360,7 +5072,7 @@
         <v>City 1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -5379,9 +5091,9 @@
         <v>&lt;InsertOrIgnore Tag="LOC_CITY_NAME_CITY_1" Language="zh_Hans_CN" Text="分城1"/&gt;</v>
       </c>
     </row>
-    <row r="5" ht="27.95" customHeight="1" spans="1:11">
+    <row r="5" spans="1:11" ht="27.95" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5392,7 +5104,7 @@
         <v>City 2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -5411,9 +5123,9 @@
         <v>&lt;InsertOrIgnore Tag="LOC_CITY_NAME_CITY_2" Language="zh_Hans_CN" Text="分城2"/&gt;</v>
       </c>
     </row>
-    <row r="6" ht="27.95" customHeight="1" spans="1:11">
+    <row r="6" spans="1:11" ht="27.95" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5424,7 +5136,7 @@
         <v>City 3</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -5443,9 +5155,9 @@
         <v>&lt;InsertOrIgnore Tag="LOC_CITY_NAME_CITY_3" Language="zh_Hans_CN" Text="分城3"/&gt;</v>
       </c>
     </row>
-    <row r="7" ht="27.95" customHeight="1" spans="1:11">
+    <row r="7" spans="1:11" ht="27.95" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5456,7 +5168,7 @@
         <v>City 4</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -5475,9 +5187,9 @@
         <v>&lt;InsertOrIgnore Tag="LOC_CITY_NAME_CITY_4" Language="zh_Hans_CN" Text="分城4"/&gt;</v>
       </c>
     </row>
-    <row r="8" ht="27.95" customHeight="1" spans="1:11">
+    <row r="8" spans="1:11" ht="27.95" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5488,7 +5200,7 @@
         <v>City 5</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -5507,9 +5219,9 @@
         <v>&lt;InsertOrIgnore Tag="LOC_CITY_NAME_CITY_5" Language="zh_Hans_CN" Text="分城5"/&gt;</v>
       </c>
     </row>
-    <row r="9" ht="27.95" customHeight="1" spans="1:11">
+    <row r="9" spans="1:11" ht="27.95" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5520,7 +5232,7 @@
         <v>City 6</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -5539,9 +5251,9 @@
         <v>&lt;InsertOrIgnore Tag="LOC_CITY_NAME_CITY_6" Language="zh_Hans_CN" Text="分城6"/&gt;</v>
       </c>
     </row>
-    <row r="10" ht="27.6" customHeight="1" spans="1:11">
+    <row r="10" spans="1:11" ht="27.6" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5552,7 +5264,7 @@
         <v>City 7</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -5571,9 +5283,9 @@
         <v>&lt;InsertOrIgnore Tag="LOC_CITY_NAME_CITY_7" Language="zh_Hans_CN" Text="分城7"/&gt;</v>
       </c>
     </row>
-    <row r="11" ht="27.95" customHeight="1" spans="1:11">
+    <row r="11" spans="1:11" ht="27.95" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5584,7 +5296,7 @@
         <v>City 8</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -5603,9 +5315,9 @@
         <v>&lt;InsertOrIgnore Tag="LOC_CITY_NAME_CITY_8" Language="zh_Hans_CN" Text="分城8"/&gt;</v>
       </c>
     </row>
-    <row r="12" ht="27.95" customHeight="1" spans="1:11">
+    <row r="12" spans="1:11" ht="27.95" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5616,7 +5328,7 @@
         <v>City 9</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -5635,9 +5347,9 @@
         <v>&lt;InsertOrIgnore Tag="LOC_CITY_NAME_CITY_9" Language="zh_Hans_CN" Text="分城9"/&gt;</v>
       </c>
     </row>
-    <row r="13" ht="27.95" customHeight="1" spans="1:11">
+    <row r="13" spans="1:11" ht="27.95" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5648,7 +5360,7 @@
         <v>City 10</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -5667,9 +5379,9 @@
         <v>&lt;InsertOrIgnore Tag="LOC_CITY_NAME_CITY_10" Language="zh_Hans_CN" Text="分城10"/&gt;</v>
       </c>
     </row>
-    <row r="14" ht="27.95" customHeight="1" spans="1:11">
+    <row r="14" spans="1:11" ht="27.95" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5680,7 +5392,7 @@
         <v>City 11</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -5699,9 +5411,9 @@
         <v>&lt;InsertOrIgnore Tag="LOC_CITY_NAME_CITY_11" Language="zh_Hans_CN" Text="分城11"/&gt;</v>
       </c>
     </row>
-    <row r="15" ht="27.95" customHeight="1" spans="1:11">
+    <row r="15" spans="1:11" ht="27.95" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5712,7 +5424,7 @@
         <v>City 12</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -5731,9 +5443,9 @@
         <v>&lt;InsertOrIgnore Tag="LOC_CITY_NAME_CITY_12" Language="zh_Hans_CN" Text="分城12"/&gt;</v>
       </c>
     </row>
-    <row r="16" ht="27.95" customHeight="1" spans="1:11">
+    <row r="16" spans="1:11" ht="27.95" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5744,7 +5456,7 @@
         <v>City 13</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -5763,9 +5475,9 @@
         <v>&lt;InsertOrIgnore Tag="LOC_CITY_NAME_CITY_13" Language="zh_Hans_CN" Text="分城13"/&gt;</v>
       </c>
     </row>
-    <row r="17" ht="27.95" customHeight="1" spans="1:11">
+    <row r="17" spans="1:11" ht="27.95" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5776,7 +5488,7 @@
         <v>City 14</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -5795,9 +5507,9 @@
         <v>&lt;InsertOrIgnore Tag="LOC_CITY_NAME_CITY_14" Language="zh_Hans_CN" Text="分城14"/&gt;</v>
       </c>
     </row>
-    <row r="18" ht="27.95" customHeight="1" spans="1:11">
+    <row r="18" spans="1:11" ht="27.95" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5808,7 +5520,7 @@
         <v>City 15</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -5827,9 +5539,9 @@
         <v>&lt;InsertOrIgnore Tag="LOC_CITY_NAME_CITY_15" Language="zh_Hans_CN" Text="分城15"/&gt;</v>
       </c>
     </row>
-    <row r="19" ht="27.95" customHeight="1" spans="1:11">
+    <row r="19" spans="1:11" ht="27.95" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5840,7 +5552,7 @@
         <v>City 16</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -5859,9 +5571,9 @@
         <v>&lt;InsertOrIgnore Tag="LOC_CITY_NAME_CITY_16" Language="zh_Hans_CN" Text="分城16"/&gt;</v>
       </c>
     </row>
-    <row r="20" ht="27.95" customHeight="1" spans="1:11">
+    <row r="20" spans="1:11" ht="27.95" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5872,7 +5584,7 @@
         <v>City 17</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -5891,9 +5603,9 @@
         <v>&lt;InsertOrIgnore Tag="LOC_CITY_NAME_CITY_17" Language="zh_Hans_CN" Text="分城17"/&gt;</v>
       </c>
     </row>
-    <row r="21" ht="27.95" customHeight="1" spans="1:11">
+    <row r="21" spans="1:11" ht="27.95" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5904,7 +5616,7 @@
         <v>City 18</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -5923,9 +5635,9 @@
         <v>&lt;InsertOrIgnore Tag="LOC_CITY_NAME_CITY_18" Language="zh_Hans_CN" Text="分城18"/&gt;</v>
       </c>
     </row>
-    <row r="22" ht="27.95" customHeight="1" spans="1:11">
+    <row r="22" spans="1:11" ht="27.95" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5936,7 +5648,7 @@
         <v>City 19</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -5955,9 +5667,9 @@
         <v>&lt;InsertOrIgnore Tag="LOC_CITY_NAME_CITY_19" Language="zh_Hans_CN" Text="分城19"/&gt;</v>
       </c>
     </row>
-    <row r="23" ht="27.95" customHeight="1" spans="1:11">
+    <row r="23" spans="1:11" ht="27.95" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5968,7 +5680,7 @@
         <v>City 20</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -5987,9 +5699,9 @@
         <v>&lt;InsertOrIgnore Tag="LOC_CITY_NAME_CITY_20" Language="zh_Hans_CN" Text="分城20"/&gt;</v>
       </c>
     </row>
-    <row r="24" ht="27.95" customHeight="1" spans="1:11">
+    <row r="24" spans="1:11" ht="27.95" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" si="4"/>
@@ -6000,7 +5712,7 @@
         <v>City 21</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -6019,9 +5731,9 @@
         <v>&lt;InsertOrIgnore Tag="LOC_CITY_NAME_CITY_21" Language="zh_Hans_CN" Text="分城21"/&gt;</v>
       </c>
     </row>
-    <row r="25" ht="43.15" customHeight="1" spans="1:11">
+    <row r="25" spans="1:11" ht="43.15" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" si="4"/>
@@ -6032,7 +5744,7 @@
         <v>City 22</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -6051,9 +5763,9 @@
         <v>&lt;InsertOrIgnore Tag="LOC_CITY_NAME_CITY_22" Language="zh_Hans_CN" Text="分城22"/&gt;</v>
       </c>
     </row>
-    <row r="26" ht="27.95" customHeight="1" spans="1:11">
+    <row r="26" spans="1:11" ht="27.95" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" si="4"/>
@@ -6064,7 +5776,7 @@
         <v>City 23</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -6083,9 +5795,9 @@
         <v>&lt;InsertOrIgnore Tag="LOC_CITY_NAME_CITY_23" Language="zh_Hans_CN" Text="分城23"/&gt;</v>
       </c>
     </row>
-    <row r="27" ht="27.95" customHeight="1" spans="1:11">
+    <row r="27" spans="1:11" ht="27.95" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" si="4"/>
@@ -6096,7 +5808,7 @@
         <v>City 24</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -6115,9 +5827,9 @@
         <v>&lt;InsertOrIgnore Tag="LOC_CITY_NAME_CITY_24" Language="zh_Hans_CN" Text="分城24"/&gt;</v>
       </c>
     </row>
-    <row r="28" ht="27.95" customHeight="1" spans="1:11">
+    <row r="28" spans="1:11" ht="27.95" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="B28" s="3" t="str">
         <f t="shared" si="4"/>
@@ -6128,7 +5840,7 @@
         <v>City 25</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -6147,9 +5859,9 @@
         <v>&lt;InsertOrIgnore Tag="LOC_CITY_NAME_CITY_25" Language="zh_Hans_CN" Text="分城25"/&gt;</v>
       </c>
     </row>
-    <row r="29" ht="27.95" customHeight="1" spans="1:11">
+    <row r="29" spans="1:11" ht="27.95" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" si="4"/>
@@ -6160,7 +5872,7 @@
         <v>City 26</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -6179,9 +5891,9 @@
         <v>&lt;InsertOrIgnore Tag="LOC_CITY_NAME_CITY_26" Language="zh_Hans_CN" Text="分城26"/&gt;</v>
       </c>
     </row>
-    <row r="30" ht="27.95" customHeight="1" spans="1:11">
+    <row r="30" spans="1:11" ht="27.95" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" si="4"/>
@@ -6192,7 +5904,7 @@
         <v>City 27</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -6211,9 +5923,9 @@
         <v>&lt;InsertOrIgnore Tag="LOC_CITY_NAME_CITY_27" Language="zh_Hans_CN" Text="分城27"/&gt;</v>
       </c>
     </row>
-    <row r="31" ht="27.95" customHeight="1" spans="1:11">
+    <row r="31" spans="1:11" ht="27.95" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" si="4"/>
@@ -6224,7 +5936,7 @@
         <v>City 28</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -6243,9 +5955,9 @@
         <v>&lt;InsertOrIgnore Tag="LOC_CITY_NAME_CITY_28" Language="zh_Hans_CN" Text="分城28"/&gt;</v>
       </c>
     </row>
-    <row r="32" ht="27.95" customHeight="1" spans="1:11">
+    <row r="32" spans="1:11" ht="27.95" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="B32" s="3" t="str">
         <f t="shared" si="4"/>
@@ -6256,7 +5968,7 @@
         <v>City 29</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
@@ -6279,45 +5991,44 @@
   <mergeCells count="1">
     <mergeCell ref="I1:K1"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="34.25" customWidth="1"/>
     <col min="2" max="4" width="38.75" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="31.6296296296296" customWidth="1"/>
+    <col min="5" max="5" width="31.625" customWidth="1"/>
     <col min="6" max="6" width="34" customWidth="1"/>
-    <col min="7" max="7" width="56.3796296296296" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6296296296296" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="56.375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="13.5" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="8.62962962962963" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="8.625" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="116.5" customWidth="1"/>
-    <col min="12" max="12" width="91.1296296296296" customWidth="1"/>
-    <col min="13" max="13" width="81.8796296296296" customWidth="1"/>
+    <col min="12" max="12" width="91.125" customWidth="1"/>
+    <col min="13" max="13" width="81.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33" customHeight="1" spans="1:13">
+    <row r="1" spans="1:13" ht="33" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2" t="str">
-        <f>城市!C1</f>
+        <f>文明百科!D2</f>
         <v>FELINE</v>
       </c>
       <c r="F1" s="2"/>
@@ -6325,21 +6036,21 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="79.5" customHeight="1" spans="1:13">
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="79.5" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
@@ -6358,21 +6069,21 @@
         <v>43</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="3" ht="27.95" customHeight="1" spans="1:13">
+        <v>259</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="27.95" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ref="B3:B42" si="0">IF(IFERROR(FIND("MODERN",$A3),0),"1","0")</f>
@@ -6386,22 +6097,22 @@
         <v>LOC_CITIZEN_FELINE_MALE_1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="K3" s="4" t="str">
         <f>_xlfn.CONCAT($G$3,$E$1,$H$3,$D3,$J$2,IF(VALUE($B3)=1,$G$4,""),IF(VALUE($C3)=1,$H$4,""),$J$3)</f>
@@ -6416,9 +6127,9 @@
         <v>&lt;Row Tag="LOC_CITIZEN_FELINE_MALE_1" Language="zh_Hans_CN" Text="喵咪"/&gt;</v>
       </c>
     </row>
-    <row r="4" ht="27.95" customHeight="1" spans="1:13">
+    <row r="4" spans="1:13" ht="27.95" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6433,16 +6144,16 @@
         <v>LOC_CITIZEN_FELINE_MALE_2</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -6459,9 +6170,9 @@
         <v>&lt;Row Tag="LOC_CITIZEN_FELINE_MALE_2" Language="zh_Hans_CN" Text="宝贝"/&gt;</v>
       </c>
     </row>
-    <row r="5" ht="27.95" customHeight="1" spans="1:13">
+    <row r="5" spans="1:13" ht="27.95" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6476,10 +6187,10 @@
         <v>LOC_CITIZEN_FELINE_MALE_3</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -6498,9 +6209,9 @@
         <v>&lt;Row Tag="LOC_CITIZEN_FELINE_MALE_3" Language="zh_Hans_CN" Text="花花"/&gt;</v>
       </c>
     </row>
-    <row r="6" ht="27.95" customHeight="1" spans="1:13">
+    <row r="6" spans="1:13" ht="27.95" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6515,10 +6226,10 @@
         <v>LOC_CITIZEN_FELINE_MALE_4</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -6537,9 +6248,9 @@
         <v>&lt;Row Tag="LOC_CITIZEN_FELINE_MALE_4" Language="zh_Hans_CN" Text="凯莉二世"/&gt;</v>
       </c>
     </row>
-    <row r="7" ht="27.95" customHeight="1" spans="1:13">
+    <row r="7" spans="1:13" ht="27.95" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6554,10 +6265,10 @@
         <v>LOC_CITIZEN_FELINE_MALE_5</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -6576,9 +6287,9 @@
         <v>&lt;Row Tag="LOC_CITIZEN_FELINE_MALE_5" Language="zh_Hans_CN" Text="斑点二世"/&gt;</v>
       </c>
     </row>
-    <row r="8" ht="27.95" customHeight="1" spans="1:13">
+    <row r="8" spans="1:13" ht="27.95" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6593,10 +6304,10 @@
         <v>LOC_CITIZEN_FELINE_MALE_6</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -6615,9 +6326,9 @@
         <v>&lt;Row Tag="LOC_CITIZEN_FELINE_MALE_6" Language="zh_Hans_CN" Text="宝贝二世"/&gt;</v>
       </c>
     </row>
-    <row r="9" ht="27.95" customHeight="1" spans="1:13">
+    <row r="9" spans="1:13" ht="27.95" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6632,10 +6343,10 @@
         <v>LOC_CITIZEN_FELINE_MALE_7</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -6654,9 +6365,9 @@
         <v>&lt;Row Tag="LOC_CITIZEN_FELINE_MALE_7" Language="zh_Hans_CN" Text="花花二世"/&gt;</v>
       </c>
     </row>
-    <row r="10" ht="27.95" customHeight="1" spans="1:13">
+    <row r="10" spans="1:13" ht="27.95" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6671,10 +6382,10 @@
         <v>LOC_CITIZEN_FELINE_MALE_8</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -6693,9 +6404,9 @@
         <v>&lt;Row Tag="LOC_CITIZEN_FELINE_MALE_8" Language="zh_Hans_CN" Text="汤姆二世"/&gt;</v>
       </c>
     </row>
-    <row r="11" ht="27.95" customHeight="1" spans="1:13">
+    <row r="11" spans="1:13" ht="27.95" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6710,10 +6421,10 @@
         <v>LOC_CITIZEN_FELINE_MALE_9</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -6732,9 +6443,9 @@
         <v>&lt;Row Tag="LOC_CITIZEN_FELINE_MALE_9" Language="zh_Hans_CN" Text="喵咪三世"/&gt;</v>
       </c>
     </row>
-    <row r="12" ht="27.95" customHeight="1" spans="1:13">
+    <row r="12" spans="1:13" ht="27.95" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6749,10 +6460,10 @@
         <v>LOC_CITIZEN_FELINE_MALE_10</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -6771,9 +6482,9 @@
         <v>&lt;Row Tag="LOC_CITIZEN_FELINE_MALE_10" Language="zh_Hans_CN" Text="宝贝三世"/&gt;</v>
       </c>
     </row>
-    <row r="13" ht="27.95" customHeight="1" spans="1:13">
+    <row r="13" spans="1:13" ht="27.95" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6788,10 +6499,10 @@
         <v>LOC_CITIZEN_FELINE_MODERN_MALE_1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -6810,9 +6521,9 @@
         <v>&lt;Row Tag="LOC_CITIZEN_FELINE_MODERN_MALE_1" Language="zh_Hans_CN" Text="花花三世"/&gt;</v>
       </c>
     </row>
-    <row r="14" ht="27.95" customHeight="1" spans="1:13">
+    <row r="14" spans="1:13" ht="27.95" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6827,10 +6538,10 @@
         <v>LOC_CITIZEN_FELINE_MODERN_MALE_2</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -6849,9 +6560,9 @@
         <v>&lt;Row Tag="LOC_CITIZEN_FELINE_MODERN_MALE_2" Language="zh_Hans_CN" Text="汤姆三世"/&gt;</v>
       </c>
     </row>
-    <row r="15" ht="27.95" customHeight="1" spans="1:13">
+    <row r="15" spans="1:13" ht="27.95" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6866,10 +6577,10 @@
         <v>LOC_CITIZEN_FELINE_MODERN_MALE_3</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -6888,9 +6599,9 @@
         <v>&lt;Row Tag="LOC_CITIZEN_FELINE_MODERN_MALE_3" Language="zh_Hans_CN" Text="喵咪四世"/&gt;</v>
       </c>
     </row>
-    <row r="16" ht="27.95" customHeight="1" spans="1:13">
+    <row r="16" spans="1:13" ht="27.95" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6905,10 +6616,10 @@
         <v>LOC_CITIZEN_FELINE_MODERN_MALE_4</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -6927,9 +6638,9 @@
         <v>&lt;Row Tag="LOC_CITIZEN_FELINE_MODERN_MALE_4" Language="zh_Hans_CN" Text="宝贝四世"/&gt;</v>
       </c>
     </row>
-    <row r="17" ht="27.95" customHeight="1" spans="1:13">
+    <row r="17" spans="1:13" ht="27.95" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6944,10 +6655,10 @@
         <v>LOC_CITIZEN_FELINE_MODERN_MALE_5</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -6966,9 +6677,9 @@
         <v>&lt;Row Tag="LOC_CITIZEN_FELINE_MODERN_MALE_5" Language="zh_Hans_CN" Text="花花四世"/&gt;</v>
       </c>
     </row>
-    <row r="18" ht="27.95" customHeight="1" spans="1:13">
+    <row r="18" spans="1:13" ht="27.95" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6983,10 +6694,10 @@
         <v>LOC_CITIZEN_FELINE_MODERN_MALE_6</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -7005,9 +6716,9 @@
         <v>&lt;Row Tag="LOC_CITIZEN_FELINE_MODERN_MALE_6" Language="zh_Hans_CN" Text="汤姆四世"/&gt;</v>
       </c>
     </row>
-    <row r="19" ht="27.95" customHeight="1" spans="1:13">
+    <row r="19" spans="1:13" ht="27.95" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7022,10 +6733,10 @@
         <v>LOC_CITIZEN_FELINE_MODERN_MALE_7</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -7044,9 +6755,9 @@
         <v>&lt;Row Tag="LOC_CITIZEN_FELINE_MODERN_MALE_7" Language="zh_Hans_CN" Text="喵咪五世"/&gt;</v>
       </c>
     </row>
-    <row r="20" ht="27.95" customHeight="1" spans="1:13">
+    <row r="20" spans="1:13" ht="27.95" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7061,10 +6772,10 @@
         <v>LOC_CITIZEN_FELINE_MODERN_MALE_8</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -7083,9 +6794,9 @@
         <v>&lt;Row Tag="LOC_CITIZEN_FELINE_MODERN_MALE_8" Language="zh_Hans_CN" Text="宝贝五世"/&gt;</v>
       </c>
     </row>
-    <row r="21" ht="27.95" customHeight="1" spans="1:13">
+    <row r="21" spans="1:13" ht="27.95" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7100,10 +6811,10 @@
         <v>LOC_CITIZEN_FELINE_MODERN_MALE_9</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -7122,9 +6833,9 @@
         <v>&lt;Row Tag="LOC_CITIZEN_FELINE_MODERN_MALE_9" Language="zh_Hans_CN" Text="花花五世"/&gt;</v>
       </c>
     </row>
-    <row r="22" ht="27.95" customHeight="1" spans="1:13">
+    <row r="22" spans="1:13" ht="27.95" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7139,10 +6850,10 @@
         <v>LOC_CITIZEN_FELINE_MODERN_MALE_10</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -7161,9 +6872,9 @@
         <v>&lt;Row Tag="LOC_CITIZEN_FELINE_MODERN_MALE_10" Language="zh_Hans_CN" Text="汤姆五世"/&gt;</v>
       </c>
     </row>
-    <row r="23" ht="27.95" customHeight="1" spans="1:13">
+    <row r="23" spans="1:13" ht="27.95" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7178,10 +6889,10 @@
         <v>LOC_CITIZEN_FELINE_FEMALE_1</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -7200,9 +6911,9 @@
         <v>&lt;Row Tag="LOC_CITIZEN_FELINE_FEMALE_1" Language="zh_Hans_CN" Text="凯蒂小姐"/&gt;</v>
       </c>
     </row>
-    <row r="24" ht="27.95" customHeight="1" spans="1:13">
+    <row r="24" spans="1:13" ht="27.95" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7217,10 +6928,10 @@
         <v>LOC_CITIZEN_FELINE_FEMALE_2</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -7239,9 +6950,9 @@
         <v>&lt;Row Tag="LOC_CITIZEN_FELINE_FEMALE_2" Language="zh_Hans_CN" Text="凯莉"/&gt;</v>
       </c>
     </row>
-    <row r="25" ht="27.95" customHeight="1" spans="1:13">
+    <row r="25" spans="1:13" ht="27.95" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7256,10 +6967,10 @@
         <v>LOC_CITIZEN_FELINE_FEMALE_3</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -7278,9 +6989,9 @@
         <v>&lt;Row Tag="LOC_CITIZEN_FELINE_FEMALE_3" Language="zh_Hans_CN" Text="斑点"/&gt;</v>
       </c>
     </row>
-    <row r="26" ht="27.95" customHeight="1" spans="1:13">
+    <row r="26" spans="1:13" ht="27.95" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7295,10 +7006,10 @@
         <v>LOC_CITIZEN_FELINE_FEMALE_4</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -7317,9 +7028,9 @@
         <v>&lt;Row Tag="LOC_CITIZEN_FELINE_FEMALE_4" Language="zh_Hans_CN" Text="胡子"/&gt;</v>
       </c>
     </row>
-    <row r="27" ht="27.95" customHeight="1" spans="1:13">
+    <row r="27" spans="1:13" ht="27.95" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7334,10 +7045,10 @@
         <v>LOC_CITIZEN_FELINE_FEMALE_5</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -7356,9 +7067,9 @@
         <v>&lt;Row Tag="LOC_CITIZEN_FELINE_FEMALE_5" Language="zh_Hans_CN" Text="柔爪萨莉"/&gt;</v>
       </c>
     </row>
-    <row r="28" ht="27.95" customHeight="1" spans="1:13">
+    <row r="28" spans="1:13" ht="27.95" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="B28" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7373,10 +7084,10 @@
         <v>LOC_CITIZEN_FELINE_FEMALE_6</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
@@ -7395,9 +7106,9 @@
         <v>&lt;Row Tag="LOC_CITIZEN_FELINE_FEMALE_6" Language="zh_Hans_CN" Text="凯蒂小姐二世"/&gt;</v>
       </c>
     </row>
-    <row r="29" ht="27.95" customHeight="1" spans="1:13">
+    <row r="29" spans="1:13" ht="27.95" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7412,10 +7123,10 @@
         <v>LOC_CITIZEN_FELINE_FEMALE_7</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -7434,9 +7145,9 @@
         <v>&lt;Row Tag="LOC_CITIZEN_FELINE_FEMALE_7" Language="zh_Hans_CN" Text="凯莉二世"/&gt;</v>
       </c>
     </row>
-    <row r="30" ht="27.95" customHeight="1" spans="1:13">
+    <row r="30" spans="1:13" ht="27.95" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7451,10 +7162,10 @@
         <v>LOC_CITIZEN_FELINE_FEMALE_8</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -7473,9 +7184,9 @@
         <v>&lt;Row Tag="LOC_CITIZEN_FELINE_FEMALE_8" Language="zh_Hans_CN" Text="斑点二世"/&gt;</v>
       </c>
     </row>
-    <row r="31" ht="27.95" customHeight="1" spans="1:13">
+    <row r="31" spans="1:13" ht="27.95" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7490,10 +7201,10 @@
         <v>LOC_CITIZEN_FELINE_FEMALE_9</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
@@ -7512,9 +7223,9 @@
         <v>&lt;Row Tag="LOC_CITIZEN_FELINE_FEMALE_9" Language="zh_Hans_CN" Text="胡子二世"/&gt;</v>
       </c>
     </row>
-    <row r="32" ht="27.95" customHeight="1" spans="1:13">
+    <row r="32" spans="1:13" ht="27.95" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="B32" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7529,10 +7240,10 @@
         <v>LOC_CITIZEN_FELINE_FEMALE_10</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -7551,9 +7262,9 @@
         <v>&lt;Row Tag="LOC_CITIZEN_FELINE_FEMALE_10" Language="zh_Hans_CN" Text="柔爪萨莉二世"/&gt;</v>
       </c>
     </row>
-    <row r="33" ht="27.95" customHeight="1" spans="1:13">
+    <row r="33" spans="1:13" ht="27.95" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="B33" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7568,10 +7279,10 @@
         <v>LOC_CITIZEN_FELINE_MODERN_FEMALE_1</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
@@ -7590,9 +7301,9 @@
         <v>&lt;Row Tag="LOC_CITIZEN_FELINE_MODERN_FEMALE_1" Language="zh_Hans_CN" Text="凯蒂小姐三世"/&gt;</v>
       </c>
     </row>
-    <row r="34" ht="27.95" customHeight="1" spans="1:13">
+    <row r="34" spans="1:13" ht="27.95" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="B34" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7607,10 +7318,10 @@
         <v>LOC_CITIZEN_FELINE_MODERN_FEMALE_2</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
@@ -7629,9 +7340,9 @@
         <v>&lt;Row Tag="LOC_CITIZEN_FELINE_MODERN_FEMALE_2" Language="zh_Hans_CN" Text="凯莉三世"/&gt;</v>
       </c>
     </row>
-    <row r="35" ht="27.95" customHeight="1" spans="1:13">
+    <row r="35" spans="1:13" ht="27.95" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="B35" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7646,10 +7357,10 @@
         <v>LOC_CITIZEN_FELINE_MODERN_FEMALE_3</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
@@ -7668,9 +7379,9 @@
         <v>&lt;Row Tag="LOC_CITIZEN_FELINE_MODERN_FEMALE_3" Language="zh_Hans_CN" Text="斑点三世"/&gt;</v>
       </c>
     </row>
-    <row r="36" ht="27.95" customHeight="1" spans="1:13">
+    <row r="36" spans="1:13" ht="27.95" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="B36" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7685,10 +7396,10 @@
         <v>LOC_CITIZEN_FELINE_MODERN_FEMALE_4</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
@@ -7707,9 +7418,9 @@
         <v>&lt;Row Tag="LOC_CITIZEN_FELINE_MODERN_FEMALE_4" Language="zh_Hans_CN" Text="胡子三世"/&gt;</v>
       </c>
     </row>
-    <row r="37" ht="27.95" customHeight="1" spans="1:13">
+    <row r="37" spans="1:13" ht="27.95" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="B37" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7724,10 +7435,10 @@
         <v>LOC_CITIZEN_FELINE_MODERN_FEMALE_5</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
@@ -7746,9 +7457,9 @@
         <v>&lt;Row Tag="LOC_CITIZEN_FELINE_MODERN_FEMALE_5" Language="zh_Hans_CN" Text="柔爪萨莉三世"/&gt;</v>
       </c>
     </row>
-    <row r="38" ht="27.95" customHeight="1" spans="1:13">
+    <row r="38" spans="1:13" ht="27.95" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="B38" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7763,10 +7474,10 @@
         <v>LOC_CITIZEN_FELINE_MODERN_FEMALE_6</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
@@ -7785,9 +7496,9 @@
         <v>&lt;Row Tag="LOC_CITIZEN_FELINE_MODERN_FEMALE_6" Language="zh_Hans_CN" Text="凯蒂小姐四世"/&gt;</v>
       </c>
     </row>
-    <row r="39" ht="27.95" customHeight="1" spans="1:13">
+    <row r="39" spans="1:13" ht="27.95" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="B39" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7802,10 +7513,10 @@
         <v>LOC_CITIZEN_FELINE_MODERN_FEMALE_7</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
@@ -7824,9 +7535,9 @@
         <v>&lt;Row Tag="LOC_CITIZEN_FELINE_MODERN_FEMALE_7" Language="zh_Hans_CN" Text="凯莉四世"/&gt;</v>
       </c>
     </row>
-    <row r="40" ht="27.95" customHeight="1" spans="1:13">
+    <row r="40" spans="1:13" ht="27.95" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="B40" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7841,10 +7552,10 @@
         <v>LOC_CITIZEN_FELINE_MODERN_FEMALE_8</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
@@ -7863,9 +7574,9 @@
         <v>&lt;Row Tag="LOC_CITIZEN_FELINE_MODERN_FEMALE_8" Language="zh_Hans_CN" Text="斑点四世"/&gt;</v>
       </c>
     </row>
-    <row r="41" ht="27.95" customHeight="1" spans="1:13">
+    <row r="41" spans="1:13" ht="27.95" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="B41" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7880,10 +7591,10 @@
         <v>LOC_CITIZEN_FELINE_MODERN_FEMALE_9</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
@@ -7902,9 +7613,9 @@
         <v>&lt;Row Tag="LOC_CITIZEN_FELINE_MODERN_FEMALE_9" Language="zh_Hans_CN" Text="胡子四世"/&gt;</v>
       </c>
     </row>
-    <row r="42" ht="27.95" customHeight="1" spans="1:13">
+    <row r="42" spans="1:13" ht="27.95" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="B42" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7919,10 +7630,10 @@
         <v>LOC_CITIZEN_FELINE_MODERN_FEMALE_10</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
@@ -7945,8 +7656,8 @@
   <mergeCells count="1">
     <mergeCell ref="K1:M1"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>